--- a/SuppXLS/Scen_HistCapGen_restart.xlsx
+++ b/SuppXLS/Scen_HistCapGen_restart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B120F5-DE84-4AC4-A5FB-16417B65AE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD46FC5-E7D2-47F1-AA3F-C38EE8FE8C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="CHP_CHPR" sheetId="8" r:id="rId4"/>
     <sheet name="CHP_shares" sheetId="10" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">utilzation_limits!$D$4:$N$971</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,8 +40,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mahmoud Mobir</author>
+  </authors>
+  <commentList>
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{E0FB3C87-AC9E-471C-86F7-396C417BEDC2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Mahmoud Mobir:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+12-19-2021
+Changed all "interpolation and forward extrapolation rules" to "interpolation and no extrapolation". 
+Some of these Ucs induced to dummy imports in the region USA. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7292" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7294" uniqueCount="138">
   <si>
     <t>~UC_SETS: R_E: AllRegions</t>
   </si>
@@ -447,12 +486,18 @@
   <si>
     <t>UC_Calib_CFs_shucpwsELEup</t>
   </si>
+  <si>
+    <t xml:space="preserve">Changed all "interpolation and forward extrapolation rules" to "interpolation and no extrapolation". Some of these Ucs induced to dummy imports in the region USA. </t>
+  </si>
+  <si>
+    <t>MahmoudMobir</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +533,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -861,9 +919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -966,6 +1026,17 @@
         <v>31</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>44549</v>
+      </c>
+      <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -973,10 +1044,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="D1:N971"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5695,7 +5768,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="4:14" x14ac:dyDescent="0.3">
@@ -5730,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="4:14" x14ac:dyDescent="0.3">
@@ -5765,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="4:14" x14ac:dyDescent="0.3">
@@ -5800,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="4:14" x14ac:dyDescent="0.3">
@@ -5835,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="4:14" x14ac:dyDescent="0.3">
@@ -5870,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="4:14" x14ac:dyDescent="0.3">
@@ -5905,7 +5978,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="4:14" x14ac:dyDescent="0.3">
@@ -5940,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="4:14" x14ac:dyDescent="0.3">
@@ -5975,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="4:14" x14ac:dyDescent="0.3">
@@ -6010,7 +6083,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="4:14" x14ac:dyDescent="0.3">
@@ -6045,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="4:14" x14ac:dyDescent="0.3">
@@ -6080,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="4:14" x14ac:dyDescent="0.3">
@@ -6115,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="4:14" x14ac:dyDescent="0.3">
@@ -6150,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="4:14" x14ac:dyDescent="0.3">
@@ -6185,7 +6258,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="4:14" x14ac:dyDescent="0.3">
@@ -6220,7 +6293,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="4:14" x14ac:dyDescent="0.3">
@@ -6255,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="4:14" x14ac:dyDescent="0.3">
@@ -6290,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="4:14" x14ac:dyDescent="0.3">
@@ -6325,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="4:14" x14ac:dyDescent="0.3">
@@ -6360,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="4:14" x14ac:dyDescent="0.3">
@@ -6395,7 +6468,7 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="4:14" x14ac:dyDescent="0.3">
@@ -6430,7 +6503,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="4:14" x14ac:dyDescent="0.3">
@@ -6465,7 +6538,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="4:14" x14ac:dyDescent="0.3">
@@ -6500,7 +6573,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="4:14" x14ac:dyDescent="0.3">
@@ -6535,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="4:14" x14ac:dyDescent="0.3">
@@ -6570,7 +6643,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="4:14" x14ac:dyDescent="0.3">
@@ -6605,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="4:14" x14ac:dyDescent="0.3">
@@ -6640,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="4:14" x14ac:dyDescent="0.3">
@@ -6675,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="4:14" x14ac:dyDescent="0.3">
@@ -6710,7 +6783,7 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="4:14" x14ac:dyDescent="0.3">
@@ -6745,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="4:14" x14ac:dyDescent="0.3">
@@ -6780,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="4:14" x14ac:dyDescent="0.3">
@@ -6815,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="4:14" x14ac:dyDescent="0.3">
@@ -6850,7 +6923,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="4:14" x14ac:dyDescent="0.3">
@@ -6885,7 +6958,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="4:14" x14ac:dyDescent="0.3">
@@ -6920,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="4:14" x14ac:dyDescent="0.3">
@@ -6955,7 +7028,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="4:14" x14ac:dyDescent="0.3">
@@ -6990,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="4:14" x14ac:dyDescent="0.3">
@@ -7025,7 +7098,7 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="4:14" x14ac:dyDescent="0.3">
@@ -7060,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="4:14" x14ac:dyDescent="0.3">
@@ -7095,7 +7168,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="4:14" x14ac:dyDescent="0.3">
@@ -7130,7 +7203,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="4:14" x14ac:dyDescent="0.3">
@@ -7165,7 +7238,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="4:14" x14ac:dyDescent="0.3">
@@ -7200,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="4:14" x14ac:dyDescent="0.3">
@@ -7235,7 +7308,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="4:14" x14ac:dyDescent="0.3">
@@ -7270,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="4:14" x14ac:dyDescent="0.3">
@@ -7305,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="4:14" x14ac:dyDescent="0.3">
@@ -7340,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="4:14" x14ac:dyDescent="0.3">
@@ -7375,7 +7448,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="4:14" x14ac:dyDescent="0.3">
@@ -7410,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="4:14" x14ac:dyDescent="0.3">
@@ -7445,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="4:14" x14ac:dyDescent="0.3">
@@ -7480,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="4:14" x14ac:dyDescent="0.3">
@@ -7515,7 +7588,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="4:14" x14ac:dyDescent="0.3">
@@ -7550,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="4:14" x14ac:dyDescent="0.3">
@@ -7585,7 +7658,7 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="4:14" x14ac:dyDescent="0.3">
@@ -7620,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="N172">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="4:14" x14ac:dyDescent="0.3">
@@ -7655,7 +7728,7 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="4:14" x14ac:dyDescent="0.3">
@@ -7690,7 +7763,7 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="4:14" x14ac:dyDescent="0.3">
@@ -7725,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="N175">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="4:14" x14ac:dyDescent="0.3">
@@ -7760,7 +7833,7 @@
         <v>0</v>
       </c>
       <c r="N176">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="4:14" x14ac:dyDescent="0.3">
@@ -7795,7 +7868,7 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="4:14" x14ac:dyDescent="0.3">
@@ -7830,7 +7903,7 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="4:14" x14ac:dyDescent="0.3">
@@ -7865,7 +7938,7 @@
         <v>0</v>
       </c>
       <c r="N179">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="4:14" x14ac:dyDescent="0.3">
@@ -7900,7 +7973,7 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="4:14" x14ac:dyDescent="0.3">
@@ -7935,7 +8008,7 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="4:14" x14ac:dyDescent="0.3">
@@ -7970,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="4:14" x14ac:dyDescent="0.3">
@@ -8005,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="4:14" x14ac:dyDescent="0.3">
@@ -8040,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="4:14" x14ac:dyDescent="0.3">
@@ -8075,7 +8148,7 @@
         <v>0</v>
       </c>
       <c r="N185">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="4:14" x14ac:dyDescent="0.3">
@@ -8110,7 +8183,7 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="4:14" x14ac:dyDescent="0.3">
@@ -8145,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="4:14" x14ac:dyDescent="0.3">
@@ -8180,7 +8253,7 @@
         <v>0</v>
       </c>
       <c r="N188">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="4:14" x14ac:dyDescent="0.3">
@@ -8215,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="4:14" x14ac:dyDescent="0.3">
@@ -8250,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="N190">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="4:14" x14ac:dyDescent="0.3">
@@ -8285,7 +8358,7 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="4:14" x14ac:dyDescent="0.3">
@@ -8320,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="4:14" x14ac:dyDescent="0.3">
@@ -8355,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="4:14" x14ac:dyDescent="0.3">
@@ -8390,7 +8463,7 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="4:14" x14ac:dyDescent="0.3">
@@ -8425,7 +8498,7 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="4:14" x14ac:dyDescent="0.3">
@@ -8460,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="4:14" x14ac:dyDescent="0.3">
@@ -8495,7 +8568,7 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="4:14" x14ac:dyDescent="0.3">
@@ -8530,7 +8603,7 @@
         <v>0</v>
       </c>
       <c r="N198">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="4:14" x14ac:dyDescent="0.3">
@@ -8565,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="N199">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="4:14" x14ac:dyDescent="0.3">
@@ -8600,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="4:14" x14ac:dyDescent="0.3">
@@ -8635,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="4:14" x14ac:dyDescent="0.3">
@@ -8670,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="4:14" x14ac:dyDescent="0.3">
@@ -8705,7 +8778,7 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="4:14" x14ac:dyDescent="0.3">
@@ -8740,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="4:14" x14ac:dyDescent="0.3">
@@ -8775,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="N205">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="4:14" x14ac:dyDescent="0.3">
@@ -8810,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="4:14" x14ac:dyDescent="0.3">
@@ -8845,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="4:14" x14ac:dyDescent="0.3">
@@ -8880,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="N208">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="4:14" x14ac:dyDescent="0.3">
@@ -8915,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="4:14" x14ac:dyDescent="0.3">
@@ -8950,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="4:14" x14ac:dyDescent="0.3">
@@ -8985,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="N211">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="4:14" x14ac:dyDescent="0.3">
@@ -9020,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="4:14" x14ac:dyDescent="0.3">
@@ -9055,7 +9128,7 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="4:14" x14ac:dyDescent="0.3">
@@ -9090,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="N214">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="4:14" x14ac:dyDescent="0.3">
@@ -9125,7 +9198,7 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="4:14" x14ac:dyDescent="0.3">
@@ -9160,7 +9233,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="4:14" x14ac:dyDescent="0.3">
@@ -9195,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="4:14" x14ac:dyDescent="0.3">
@@ -9230,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="N218">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="4:14" x14ac:dyDescent="0.3">
@@ -9265,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="4:14" x14ac:dyDescent="0.3">
@@ -9300,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="N220">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="4:14" x14ac:dyDescent="0.3">
@@ -9335,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="4:14" x14ac:dyDescent="0.3">
@@ -9370,7 +9443,7 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="4:14" x14ac:dyDescent="0.3">
@@ -9405,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="4:14" x14ac:dyDescent="0.3">
@@ -9440,7 +9513,7 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="4:14" x14ac:dyDescent="0.3">
@@ -9475,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="4:14" x14ac:dyDescent="0.3">
@@ -9510,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="4:14" x14ac:dyDescent="0.3">
@@ -9545,7 +9618,7 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="4:14" x14ac:dyDescent="0.3">
@@ -9580,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="N228">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="4:14" x14ac:dyDescent="0.3">
@@ -9615,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="N229">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="4:14" x14ac:dyDescent="0.3">
@@ -9650,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="N230">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="4:14" x14ac:dyDescent="0.3">
@@ -9685,7 +9758,7 @@
         <v>0</v>
       </c>
       <c r="N231">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="4:14" x14ac:dyDescent="0.3">
@@ -9720,7 +9793,7 @@
         <v>0</v>
       </c>
       <c r="N232">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="4:14" x14ac:dyDescent="0.3">
@@ -9755,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="4:14" x14ac:dyDescent="0.3">
@@ -9790,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="N234">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="4:14" x14ac:dyDescent="0.3">
@@ -9825,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="4:14" x14ac:dyDescent="0.3">
@@ -9860,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="4:14" x14ac:dyDescent="0.3">
@@ -9895,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="N237">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="4:14" x14ac:dyDescent="0.3">
@@ -9930,7 +10003,7 @@
         <v>0</v>
       </c>
       <c r="N238">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="4:14" x14ac:dyDescent="0.3">
@@ -9965,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="4:14" x14ac:dyDescent="0.3">
@@ -10000,7 +10073,7 @@
         <v>0</v>
       </c>
       <c r="N240">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="4:14" x14ac:dyDescent="0.3">
@@ -10035,7 +10108,7 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="4:14" x14ac:dyDescent="0.3">
@@ -10070,7 +10143,7 @@
         <v>0</v>
       </c>
       <c r="N242">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="4:14" x14ac:dyDescent="0.3">
@@ -10105,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="N243">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="4:14" x14ac:dyDescent="0.3">
@@ -10140,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="4:14" x14ac:dyDescent="0.3">
@@ -10175,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="N245">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="4:14" x14ac:dyDescent="0.3">
@@ -10210,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="4:14" x14ac:dyDescent="0.3">
@@ -10245,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="N247">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="4:14" x14ac:dyDescent="0.3">
@@ -10280,7 +10353,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="4:14" x14ac:dyDescent="0.3">
@@ -10315,7 +10388,7 @@
         <v>0</v>
       </c>
       <c r="N249">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="4:14" x14ac:dyDescent="0.3">
@@ -10350,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="N250">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="4:14" x14ac:dyDescent="0.3">
@@ -10385,7 +10458,7 @@
         <v>0</v>
       </c>
       <c r="N251">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="4:14" x14ac:dyDescent="0.3">
@@ -10420,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="N252">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="4:14" x14ac:dyDescent="0.3">
@@ -10455,7 +10528,7 @@
         <v>0</v>
       </c>
       <c r="N253">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="4:14" x14ac:dyDescent="0.3">
@@ -10490,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="N254">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="4:14" x14ac:dyDescent="0.3">
@@ -10525,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="N255">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="4:14" x14ac:dyDescent="0.3">
@@ -10560,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="N256">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="4:14" x14ac:dyDescent="0.3">
@@ -10595,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="N257">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="4:14" x14ac:dyDescent="0.3">
@@ -10630,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="N258">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="4:14" x14ac:dyDescent="0.3">
@@ -10665,7 +10738,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="4:14" x14ac:dyDescent="0.3">
@@ -10700,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="N260">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="4:14" x14ac:dyDescent="0.3">
@@ -10735,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="N261">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="4:14" x14ac:dyDescent="0.3">
@@ -10770,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="N262">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="4:14" x14ac:dyDescent="0.3">
@@ -10805,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="N263">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="4:14" x14ac:dyDescent="0.3">
@@ -10840,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N264">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="4:14" x14ac:dyDescent="0.3">
@@ -10875,7 +10948,7 @@
         <v>0</v>
       </c>
       <c r="N265">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="4:14" x14ac:dyDescent="0.3">
@@ -10910,7 +10983,7 @@
         <v>0</v>
       </c>
       <c r="N266">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="4:14" x14ac:dyDescent="0.3">
@@ -10945,7 +11018,7 @@
         <v>0</v>
       </c>
       <c r="N267">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="4:14" x14ac:dyDescent="0.3">
@@ -10980,7 +11053,7 @@
         <v>0</v>
       </c>
       <c r="N268">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="4:14" x14ac:dyDescent="0.3">
@@ -11015,7 +11088,7 @@
         <v>0</v>
       </c>
       <c r="N269">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="4:14" x14ac:dyDescent="0.3">
@@ -11050,7 +11123,7 @@
         <v>0</v>
       </c>
       <c r="N270">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="4:14" x14ac:dyDescent="0.3">
@@ -11085,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="N271">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="4:14" x14ac:dyDescent="0.3">
@@ -11120,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="N272">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="4:14" x14ac:dyDescent="0.3">
@@ -11155,7 +11228,7 @@
         <v>0</v>
       </c>
       <c r="N273">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="4:14" x14ac:dyDescent="0.3">
@@ -11190,7 +11263,7 @@
         <v>0</v>
       </c>
       <c r="N274">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="4:14" x14ac:dyDescent="0.3">
@@ -11225,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="4:14" x14ac:dyDescent="0.3">
@@ -11260,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="4:14" x14ac:dyDescent="0.3">
@@ -11295,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="N277">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="4:14" x14ac:dyDescent="0.3">
@@ -11330,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="N278">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="4:14" x14ac:dyDescent="0.3">
@@ -11365,7 +11438,7 @@
         <v>0</v>
       </c>
       <c r="N279">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="4:14" x14ac:dyDescent="0.3">
@@ -11400,7 +11473,7 @@
         <v>0</v>
       </c>
       <c r="N280">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="4:14" x14ac:dyDescent="0.3">
@@ -11435,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="4:14" x14ac:dyDescent="0.3">
@@ -11470,7 +11543,7 @@
         <v>0</v>
       </c>
       <c r="N282">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="4:14" x14ac:dyDescent="0.3">
@@ -11505,7 +11578,7 @@
         <v>0</v>
       </c>
       <c r="N283">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="4:14" x14ac:dyDescent="0.3">
@@ -11540,7 +11613,7 @@
         <v>0</v>
       </c>
       <c r="N284">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="4:14" x14ac:dyDescent="0.3">
@@ -11575,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="N285">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="4:14" x14ac:dyDescent="0.3">
@@ -11610,7 +11683,7 @@
         <v>0</v>
       </c>
       <c r="N286">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="4:14" x14ac:dyDescent="0.3">
@@ -11645,7 +11718,7 @@
         <v>0</v>
       </c>
       <c r="N287">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="4:14" x14ac:dyDescent="0.3">
@@ -11680,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="N288">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="4:14" x14ac:dyDescent="0.3">
@@ -11715,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="4:14" x14ac:dyDescent="0.3">
@@ -11750,7 +11823,7 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="4:14" x14ac:dyDescent="0.3">
@@ -11785,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="N291">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="4:14" x14ac:dyDescent="0.3">
@@ -11820,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="N292">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="4:14" x14ac:dyDescent="0.3">
@@ -11855,7 +11928,7 @@
         <v>0</v>
       </c>
       <c r="N293">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="4:14" x14ac:dyDescent="0.3">
@@ -11890,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="4:14" x14ac:dyDescent="0.3">
@@ -11925,7 +11998,7 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="4:14" x14ac:dyDescent="0.3">
@@ -11960,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="N296">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="4:14" x14ac:dyDescent="0.3">
@@ -11995,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="N297">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="4:14" x14ac:dyDescent="0.3">
@@ -12030,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="N298">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="4:14" x14ac:dyDescent="0.3">
@@ -12065,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="N299">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="4:14" x14ac:dyDescent="0.3">
@@ -12100,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="N300">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="4:14" x14ac:dyDescent="0.3">
@@ -12135,7 +12208,7 @@
         <v>0</v>
       </c>
       <c r="N301">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="4:14" x14ac:dyDescent="0.3">
@@ -12170,7 +12243,7 @@
         <v>0</v>
       </c>
       <c r="N302">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="4:14" x14ac:dyDescent="0.3">
@@ -12205,7 +12278,7 @@
         <v>0</v>
       </c>
       <c r="N303">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="4:14" x14ac:dyDescent="0.3">
@@ -12240,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="N304">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="4:14" x14ac:dyDescent="0.3">
@@ -12275,7 +12348,7 @@
         <v>0</v>
       </c>
       <c r="N305">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="4:14" x14ac:dyDescent="0.3">
@@ -12310,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="N306">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="4:14" x14ac:dyDescent="0.3">
@@ -12345,7 +12418,7 @@
         <v>0</v>
       </c>
       <c r="N307">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="4:14" x14ac:dyDescent="0.3">
@@ -12380,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="N308">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="4:14" x14ac:dyDescent="0.3">
@@ -12415,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="4:14" x14ac:dyDescent="0.3">
@@ -12450,7 +12523,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="4:14" x14ac:dyDescent="0.3">
@@ -12485,7 +12558,7 @@
         <v>0</v>
       </c>
       <c r="N311">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="4:14" x14ac:dyDescent="0.3">
@@ -12520,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="4:14" x14ac:dyDescent="0.3">
@@ -12555,7 +12628,7 @@
         <v>0</v>
       </c>
       <c r="N313">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="4:14" x14ac:dyDescent="0.3">
@@ -12590,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="N314">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="4:14" x14ac:dyDescent="0.3">
@@ -12625,7 +12698,7 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="4:14" x14ac:dyDescent="0.3">
@@ -12660,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="N316">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="4:14" x14ac:dyDescent="0.3">
@@ -12695,7 +12768,7 @@
         <v>0</v>
       </c>
       <c r="N317">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="4:14" x14ac:dyDescent="0.3">
@@ -12730,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="N318">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="4:14" x14ac:dyDescent="0.3">
@@ -12765,7 +12838,7 @@
         <v>0</v>
       </c>
       <c r="N319">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="4:14" x14ac:dyDescent="0.3">
@@ -12800,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="N320">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="4:14" x14ac:dyDescent="0.3">
@@ -12835,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="N321">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="4:14" x14ac:dyDescent="0.3">
@@ -12870,7 +12943,7 @@
         <v>0</v>
       </c>
       <c r="N322">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="4:14" x14ac:dyDescent="0.3">
@@ -12905,7 +12978,7 @@
         <v>0</v>
       </c>
       <c r="N323">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="4:14" x14ac:dyDescent="0.3">
@@ -12940,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="N324">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="4:14" x14ac:dyDescent="0.3">
@@ -12975,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="N325">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="4:14" x14ac:dyDescent="0.3">
@@ -13010,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="N326">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="4:14" x14ac:dyDescent="0.3">
@@ -13045,7 +13118,7 @@
         <v>0</v>
       </c>
       <c r="N327">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="4:14" x14ac:dyDescent="0.3">
@@ -13080,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="N328">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="4:14" x14ac:dyDescent="0.3">
@@ -13115,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="N329">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="4:14" x14ac:dyDescent="0.3">
@@ -13150,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="N330">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="4:14" x14ac:dyDescent="0.3">
@@ -13185,7 +13258,7 @@
         <v>0</v>
       </c>
       <c r="N331">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="4:14" x14ac:dyDescent="0.3">
@@ -13220,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="N332">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="4:14" x14ac:dyDescent="0.3">
@@ -13255,7 +13328,7 @@
         <v>0</v>
       </c>
       <c r="N333">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="4:14" x14ac:dyDescent="0.3">
@@ -13290,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="N334">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="4:14" x14ac:dyDescent="0.3">
@@ -13325,7 +13398,7 @@
         <v>0</v>
       </c>
       <c r="N335">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="4:14" x14ac:dyDescent="0.3">
@@ -13360,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="N336">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337" spans="4:14" x14ac:dyDescent="0.3">
@@ -13395,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="N337">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="4:14" x14ac:dyDescent="0.3">
@@ -13430,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="N338">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="4:14" x14ac:dyDescent="0.3">
@@ -13465,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="N339">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="4:14" x14ac:dyDescent="0.3">
@@ -13500,7 +13573,7 @@
         <v>0</v>
       </c>
       <c r="N340">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="4:14" x14ac:dyDescent="0.3">
@@ -13535,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="N341">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="4:14" x14ac:dyDescent="0.3">
@@ -13570,7 +13643,7 @@
         <v>0</v>
       </c>
       <c r="N342">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="4:14" x14ac:dyDescent="0.3">
@@ -13605,7 +13678,7 @@
         <v>0</v>
       </c>
       <c r="N343">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="4:14" x14ac:dyDescent="0.3">
@@ -13640,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="N344">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="4:14" x14ac:dyDescent="0.3">
@@ -13675,7 +13748,7 @@
         <v>0</v>
       </c>
       <c r="N345">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="4:14" x14ac:dyDescent="0.3">
@@ -13710,7 +13783,7 @@
         <v>0</v>
       </c>
       <c r="N346">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="4:14" x14ac:dyDescent="0.3">
@@ -13745,7 +13818,7 @@
         <v>0</v>
       </c>
       <c r="N347">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="4:14" x14ac:dyDescent="0.3">
@@ -13780,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="N348">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="4:14" x14ac:dyDescent="0.3">
@@ -13815,7 +13888,7 @@
         <v>0</v>
       </c>
       <c r="N349">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="4:14" x14ac:dyDescent="0.3">
@@ -13850,7 +13923,7 @@
         <v>0</v>
       </c>
       <c r="N350">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="4:14" x14ac:dyDescent="0.3">
@@ -13885,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="N351">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="4:14" x14ac:dyDescent="0.3">
@@ -13920,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="N352">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="4:14" x14ac:dyDescent="0.3">
@@ -13955,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="N353">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="4:14" x14ac:dyDescent="0.3">
@@ -13990,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="N354">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="4:14" x14ac:dyDescent="0.3">
@@ -14025,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="N355">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="4:14" x14ac:dyDescent="0.3">
@@ -14060,7 +14133,7 @@
         <v>0</v>
       </c>
       <c r="N356">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="4:14" x14ac:dyDescent="0.3">
@@ -14095,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="N357">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="4:14" x14ac:dyDescent="0.3">
@@ -14130,7 +14203,7 @@
         <v>0</v>
       </c>
       <c r="N358">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="4:14" x14ac:dyDescent="0.3">
@@ -14165,7 +14238,7 @@
         <v>0</v>
       </c>
       <c r="N359">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="4:14" x14ac:dyDescent="0.3">
@@ -14200,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="N360">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="4:14" x14ac:dyDescent="0.3">
@@ -14235,7 +14308,7 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="4:14" x14ac:dyDescent="0.3">
@@ -14270,7 +14343,7 @@
         <v>0</v>
       </c>
       <c r="N362">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="4:14" x14ac:dyDescent="0.3">
@@ -14305,7 +14378,7 @@
         <v>0</v>
       </c>
       <c r="N363">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="4:14" x14ac:dyDescent="0.3">
@@ -14340,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="N364">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="4:14" x14ac:dyDescent="0.3">
@@ -14375,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="N365">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="4:14" x14ac:dyDescent="0.3">
@@ -14410,7 +14483,7 @@
         <v>0</v>
       </c>
       <c r="N366">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="4:14" x14ac:dyDescent="0.3">
@@ -14445,7 +14518,7 @@
         <v>0</v>
       </c>
       <c r="N367">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="4:14" x14ac:dyDescent="0.3">
@@ -14480,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="N368">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="4:14" x14ac:dyDescent="0.3">
@@ -14515,7 +14588,7 @@
         <v>0</v>
       </c>
       <c r="N369">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="4:14" x14ac:dyDescent="0.3">
@@ -14550,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="N370">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="4:14" x14ac:dyDescent="0.3">
@@ -14585,7 +14658,7 @@
         <v>0</v>
       </c>
       <c r="N371">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="4:14" x14ac:dyDescent="0.3">
@@ -14620,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="4:14" x14ac:dyDescent="0.3">
@@ -14655,7 +14728,7 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="4:14" x14ac:dyDescent="0.3">
@@ -14690,7 +14763,7 @@
         <v>0</v>
       </c>
       <c r="N374">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="4:14" x14ac:dyDescent="0.3">
@@ -14725,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="N375">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="4:14" x14ac:dyDescent="0.3">
@@ -14760,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="N376">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="4:14" x14ac:dyDescent="0.3">
@@ -14795,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="N377">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="4:14" x14ac:dyDescent="0.3">
@@ -14830,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="4:14" x14ac:dyDescent="0.3">
@@ -14865,7 +14938,7 @@
         <v>0</v>
       </c>
       <c r="N379">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="4:14" x14ac:dyDescent="0.3">
@@ -14900,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="N380">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="4:14" x14ac:dyDescent="0.3">
@@ -14935,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="N381">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="4:14" x14ac:dyDescent="0.3">
@@ -14970,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="N382">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="4:14" x14ac:dyDescent="0.3">
@@ -15005,7 +15078,7 @@
         <v>0</v>
       </c>
       <c r="N383">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="4:14" x14ac:dyDescent="0.3">
@@ -15040,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="N384">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="4:14" x14ac:dyDescent="0.3">
@@ -15075,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="N385">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="4:14" x14ac:dyDescent="0.3">
@@ -15110,7 +15183,7 @@
         <v>0</v>
       </c>
       <c r="N386">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="4:14" x14ac:dyDescent="0.3">
@@ -15145,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="4:14" x14ac:dyDescent="0.3">
@@ -15180,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="N388">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="4:14" x14ac:dyDescent="0.3">
@@ -15215,7 +15288,7 @@
         <v>0</v>
       </c>
       <c r="N389">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="4:14" x14ac:dyDescent="0.3">
@@ -15250,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="N390">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="4:14" x14ac:dyDescent="0.3">
@@ -15285,7 +15358,7 @@
         <v>0</v>
       </c>
       <c r="N391">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="4:14" x14ac:dyDescent="0.3">
@@ -15320,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="N392">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="4:14" x14ac:dyDescent="0.3">
@@ -15355,7 +15428,7 @@
         <v>0</v>
       </c>
       <c r="N393">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="4:14" x14ac:dyDescent="0.3">
@@ -15390,7 +15463,7 @@
         <v>0</v>
       </c>
       <c r="N394">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="4:14" x14ac:dyDescent="0.3">
@@ -15425,7 +15498,7 @@
         <v>0</v>
       </c>
       <c r="N395">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="4:14" x14ac:dyDescent="0.3">
@@ -15460,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="N396">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="4:14" x14ac:dyDescent="0.3">
@@ -15495,7 +15568,7 @@
         <v>0</v>
       </c>
       <c r="N397">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="4:14" x14ac:dyDescent="0.3">
@@ -15530,7 +15603,7 @@
         <v>0</v>
       </c>
       <c r="N398">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="4:14" x14ac:dyDescent="0.3">
@@ -15565,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="N399">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="4:14" x14ac:dyDescent="0.3">
@@ -15600,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="N400">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="4:14" x14ac:dyDescent="0.3">
@@ -15635,7 +15708,7 @@
         <v>0</v>
       </c>
       <c r="N401">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="4:14" x14ac:dyDescent="0.3">
@@ -15670,7 +15743,7 @@
         <v>0</v>
       </c>
       <c r="N402">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="4:14" x14ac:dyDescent="0.3">
@@ -15705,7 +15778,7 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="4:14" x14ac:dyDescent="0.3">
@@ -15740,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="N404">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="4:14" x14ac:dyDescent="0.3">
@@ -15775,7 +15848,7 @@
         <v>0</v>
       </c>
       <c r="N405">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="4:14" x14ac:dyDescent="0.3">
@@ -15810,7 +15883,7 @@
         <v>0</v>
       </c>
       <c r="N406">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="4:14" x14ac:dyDescent="0.3">
@@ -15845,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="N407">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="4:14" x14ac:dyDescent="0.3">
@@ -15880,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="N408">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="4:14" x14ac:dyDescent="0.3">
@@ -15915,7 +15988,7 @@
         <v>0</v>
       </c>
       <c r="N409">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="4:14" x14ac:dyDescent="0.3">
@@ -15950,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="N410">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="4:14" x14ac:dyDescent="0.3">
@@ -15985,7 +16058,7 @@
         <v>0</v>
       </c>
       <c r="N411">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="4:14" x14ac:dyDescent="0.3">
@@ -16020,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="N412">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="4:14" x14ac:dyDescent="0.3">
@@ -16055,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="N413">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="4:14" x14ac:dyDescent="0.3">
@@ -16090,7 +16163,7 @@
         <v>0</v>
       </c>
       <c r="N414">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="4:14" x14ac:dyDescent="0.3">
@@ -16125,7 +16198,7 @@
         <v>0</v>
       </c>
       <c r="N415">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="4:14" x14ac:dyDescent="0.3">
@@ -16160,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="N416">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="4:14" x14ac:dyDescent="0.3">
@@ -16195,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="N417">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="4:14" x14ac:dyDescent="0.3">
@@ -16230,7 +16303,7 @@
         <v>0</v>
       </c>
       <c r="N418">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="4:14" x14ac:dyDescent="0.3">
@@ -16265,7 +16338,7 @@
         <v>0</v>
       </c>
       <c r="N419">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="4:14" x14ac:dyDescent="0.3">
@@ -16300,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="N420">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="4:14" x14ac:dyDescent="0.3">
@@ -16335,7 +16408,7 @@
         <v>0</v>
       </c>
       <c r="N421">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="4:14" x14ac:dyDescent="0.3">
@@ -16370,7 +16443,7 @@
         <v>0</v>
       </c>
       <c r="N422">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="4:14" x14ac:dyDescent="0.3">
@@ -16405,7 +16478,7 @@
         <v>0</v>
       </c>
       <c r="N423">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="4:14" x14ac:dyDescent="0.3">
@@ -16440,7 +16513,7 @@
         <v>0</v>
       </c>
       <c r="N424">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="4:14" x14ac:dyDescent="0.3">
@@ -16475,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="N425">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="4:14" x14ac:dyDescent="0.3">
@@ -16510,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="N426">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="4:14" x14ac:dyDescent="0.3">
@@ -16545,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="4:14" x14ac:dyDescent="0.3">
@@ -16580,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="N428">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="4:14" x14ac:dyDescent="0.3">
@@ -16615,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="4:14" x14ac:dyDescent="0.3">
@@ -16650,7 +16723,7 @@
         <v>0</v>
       </c>
       <c r="N430">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="4:14" x14ac:dyDescent="0.3">
@@ -16685,7 +16758,7 @@
         <v>0</v>
       </c>
       <c r="N431">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="4:14" x14ac:dyDescent="0.3">
@@ -16720,7 +16793,7 @@
         <v>0</v>
       </c>
       <c r="N432">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="4:14" x14ac:dyDescent="0.3">
@@ -16755,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="N433">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="4:14" x14ac:dyDescent="0.3">
@@ -16790,7 +16863,7 @@
         <v>0</v>
       </c>
       <c r="N434">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="4:14" x14ac:dyDescent="0.3">
@@ -16825,7 +16898,7 @@
         <v>0</v>
       </c>
       <c r="N435">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="4:14" x14ac:dyDescent="0.3">
@@ -16860,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="N436">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="4:14" x14ac:dyDescent="0.3">
@@ -16895,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="N437">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="4:14" x14ac:dyDescent="0.3">
@@ -16930,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="N438">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="4:14" x14ac:dyDescent="0.3">
@@ -16965,7 +17038,7 @@
         <v>0</v>
       </c>
       <c r="N439">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="4:14" x14ac:dyDescent="0.3">
@@ -17000,7 +17073,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="4:14" x14ac:dyDescent="0.3">
@@ -17035,7 +17108,7 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="4:14" x14ac:dyDescent="0.3">
@@ -20010,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="N526">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="4:14" x14ac:dyDescent="0.3">
@@ -20045,7 +20118,7 @@
         <v>0</v>
       </c>
       <c r="N527">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="4:14" x14ac:dyDescent="0.3">
@@ -20080,7 +20153,7 @@
         <v>0</v>
       </c>
       <c r="N528">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="4:14" x14ac:dyDescent="0.3">
@@ -20115,7 +20188,7 @@
         <v>0</v>
       </c>
       <c r="N529">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="4:14" x14ac:dyDescent="0.3">
@@ -20150,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="N530">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="4:14" x14ac:dyDescent="0.3">
@@ -20185,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="N531">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="4:14" x14ac:dyDescent="0.3">
@@ -20220,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="N532">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="4:14" x14ac:dyDescent="0.3">
@@ -20255,7 +20328,7 @@
         <v>0</v>
       </c>
       <c r="N533">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="4:14" x14ac:dyDescent="0.3">
@@ -20290,7 +20363,7 @@
         <v>0</v>
       </c>
       <c r="N534">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="4:14" x14ac:dyDescent="0.3">
@@ -20325,7 +20398,7 @@
         <v>0</v>
       </c>
       <c r="N535">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="4:14" x14ac:dyDescent="0.3">
@@ -20360,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="N536">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="4:14" x14ac:dyDescent="0.3">
@@ -20395,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="N537">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="4:14" x14ac:dyDescent="0.3">
@@ -20430,7 +20503,7 @@
         <v>0</v>
       </c>
       <c r="N538">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="4:14" x14ac:dyDescent="0.3">
@@ -20465,7 +20538,7 @@
         <v>0</v>
       </c>
       <c r="N539">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="4:14" x14ac:dyDescent="0.3">
@@ -20500,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="N540">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="4:14" x14ac:dyDescent="0.3">
@@ -20535,7 +20608,7 @@
         <v>0</v>
       </c>
       <c r="N541">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="4:14" x14ac:dyDescent="0.3">
@@ -20570,7 +20643,7 @@
         <v>0</v>
       </c>
       <c r="N542">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="4:14" x14ac:dyDescent="0.3">
@@ -20605,7 +20678,7 @@
         <v>0</v>
       </c>
       <c r="N543">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="4:14" x14ac:dyDescent="0.3">
@@ -20640,7 +20713,7 @@
         <v>0</v>
       </c>
       <c r="N544">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="4:14" x14ac:dyDescent="0.3">
@@ -20675,7 +20748,7 @@
         <v>0</v>
       </c>
       <c r="N545">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="4:14" x14ac:dyDescent="0.3">
@@ -20710,7 +20783,7 @@
         <v>0</v>
       </c>
       <c r="N546">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="4:14" x14ac:dyDescent="0.3">
@@ -20745,7 +20818,7 @@
         <v>0</v>
       </c>
       <c r="N547">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="4:14" x14ac:dyDescent="0.3">
@@ -20780,7 +20853,7 @@
         <v>0</v>
       </c>
       <c r="N548">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="4:14" x14ac:dyDescent="0.3">
@@ -20815,7 +20888,7 @@
         <v>0</v>
       </c>
       <c r="N549">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="4:14" x14ac:dyDescent="0.3">
@@ -20850,7 +20923,7 @@
         <v>0</v>
       </c>
       <c r="N550">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="4:14" x14ac:dyDescent="0.3">
@@ -20885,7 +20958,7 @@
         <v>0</v>
       </c>
       <c r="N551">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="4:14" x14ac:dyDescent="0.3">
@@ -20920,7 +20993,7 @@
         <v>0</v>
       </c>
       <c r="N552">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="4:14" x14ac:dyDescent="0.3">
@@ -20955,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="N553">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="4:14" x14ac:dyDescent="0.3">
@@ -20990,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="N554">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="4:14" x14ac:dyDescent="0.3">
@@ -21025,7 +21098,7 @@
         <v>0</v>
       </c>
       <c r="N555">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="4:14" x14ac:dyDescent="0.3">
@@ -21060,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="N556">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="4:14" x14ac:dyDescent="0.3">
@@ -21095,7 +21168,7 @@
         <v>0</v>
       </c>
       <c r="N557">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="4:14" x14ac:dyDescent="0.3">
@@ -21130,7 +21203,7 @@
         <v>0</v>
       </c>
       <c r="N558">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="4:14" x14ac:dyDescent="0.3">
@@ -21165,7 +21238,7 @@
         <v>0</v>
       </c>
       <c r="N559">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="4:14" x14ac:dyDescent="0.3">
@@ -21200,7 +21273,7 @@
         <v>0</v>
       </c>
       <c r="N560">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="4:14" x14ac:dyDescent="0.3">
@@ -21235,7 +21308,7 @@
         <v>0</v>
       </c>
       <c r="N561">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="4:14" x14ac:dyDescent="0.3">
@@ -21270,7 +21343,7 @@
         <v>0</v>
       </c>
       <c r="N562">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="4:14" x14ac:dyDescent="0.3">
@@ -21305,7 +21378,7 @@
         <v>0</v>
       </c>
       <c r="N563">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="4:14" x14ac:dyDescent="0.3">
@@ -21340,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="N564">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="4:14" x14ac:dyDescent="0.3">
@@ -21375,7 +21448,7 @@
         <v>0</v>
       </c>
       <c r="N565">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="4:14" x14ac:dyDescent="0.3">
@@ -21410,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="N566">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="4:14" x14ac:dyDescent="0.3">
@@ -21445,7 +21518,7 @@
         <v>0</v>
       </c>
       <c r="N567">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="4:14" x14ac:dyDescent="0.3">
@@ -21480,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="N568">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="4:14" x14ac:dyDescent="0.3">
@@ -21515,7 +21588,7 @@
         <v>0</v>
       </c>
       <c r="N569">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="4:14" x14ac:dyDescent="0.3">
@@ -21550,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="N570">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="4:14" x14ac:dyDescent="0.3">
@@ -21585,7 +21658,7 @@
         <v>0</v>
       </c>
       <c r="N571">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="4:14" x14ac:dyDescent="0.3">
@@ -21620,7 +21693,7 @@
         <v>0</v>
       </c>
       <c r="N572">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="4:14" x14ac:dyDescent="0.3">
@@ -21655,7 +21728,7 @@
         <v>0</v>
       </c>
       <c r="N573">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="4:14" x14ac:dyDescent="0.3">
@@ -21690,7 +21763,7 @@
         <v>0</v>
       </c>
       <c r="N574">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="4:14" x14ac:dyDescent="0.3">
@@ -21725,7 +21798,7 @@
         <v>0</v>
       </c>
       <c r="N575">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="4:14" x14ac:dyDescent="0.3">
@@ -21760,7 +21833,7 @@
         <v>0</v>
       </c>
       <c r="N576">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="4:14" x14ac:dyDescent="0.3">
@@ -21795,7 +21868,7 @@
         <v>0</v>
       </c>
       <c r="N577">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="4:14" x14ac:dyDescent="0.3">
@@ -21830,7 +21903,7 @@
         <v>0</v>
       </c>
       <c r="N578">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="4:14" x14ac:dyDescent="0.3">
@@ -21865,7 +21938,7 @@
         <v>0</v>
       </c>
       <c r="N579">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="4:14" x14ac:dyDescent="0.3">
@@ -21900,7 +21973,7 @@
         <v>0</v>
       </c>
       <c r="N580">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="4:14" x14ac:dyDescent="0.3">
@@ -21935,7 +22008,7 @@
         <v>0</v>
       </c>
       <c r="N581">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="4:14" x14ac:dyDescent="0.3">
@@ -21970,7 +22043,7 @@
         <v>0</v>
       </c>
       <c r="N582">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="4:14" x14ac:dyDescent="0.3">
@@ -22005,7 +22078,7 @@
         <v>0</v>
       </c>
       <c r="N583">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="4:14" x14ac:dyDescent="0.3">
@@ -22040,7 +22113,7 @@
         <v>0</v>
       </c>
       <c r="N584">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="4:14" x14ac:dyDescent="0.3">
@@ -22075,7 +22148,7 @@
         <v>0</v>
       </c>
       <c r="N585">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="4:14" x14ac:dyDescent="0.3">
@@ -22110,7 +22183,7 @@
         <v>0</v>
       </c>
       <c r="N586">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="4:14" x14ac:dyDescent="0.3">
@@ -22145,7 +22218,7 @@
         <v>0</v>
       </c>
       <c r="N587">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="4:14" x14ac:dyDescent="0.3">
@@ -22180,7 +22253,7 @@
         <v>0</v>
       </c>
       <c r="N588">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="4:14" x14ac:dyDescent="0.3">
@@ -22215,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="N589">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="4:14" x14ac:dyDescent="0.3">
@@ -22250,7 +22323,7 @@
         <v>0</v>
       </c>
       <c r="N590">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="4:14" x14ac:dyDescent="0.3">
@@ -22285,7 +22358,7 @@
         <v>0</v>
       </c>
       <c r="N591">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="4:14" x14ac:dyDescent="0.3">
@@ -22320,7 +22393,7 @@
         <v>0</v>
       </c>
       <c r="N592">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="4:14" x14ac:dyDescent="0.3">
@@ -22355,7 +22428,7 @@
         <v>0</v>
       </c>
       <c r="N593">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="4:14" x14ac:dyDescent="0.3">
@@ -22390,7 +22463,7 @@
         <v>0</v>
       </c>
       <c r="N594">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="4:14" x14ac:dyDescent="0.3">
@@ -22425,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="N595">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="4:14" x14ac:dyDescent="0.3">
@@ -22460,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="N596">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="4:14" x14ac:dyDescent="0.3">
@@ -22495,7 +22568,7 @@
         <v>0</v>
       </c>
       <c r="N597">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="4:14" x14ac:dyDescent="0.3">
@@ -22530,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="N598">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="4:14" x14ac:dyDescent="0.3">
@@ -22565,7 +22638,7 @@
         <v>0</v>
       </c>
       <c r="N599">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="4:14" x14ac:dyDescent="0.3">
@@ -22600,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="N600">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="4:14" x14ac:dyDescent="0.3">
@@ -22635,7 +22708,7 @@
         <v>0</v>
       </c>
       <c r="N601">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="4:14" x14ac:dyDescent="0.3">
@@ -22670,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="N602">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="4:14" x14ac:dyDescent="0.3">
@@ -22705,7 +22778,7 @@
         <v>0</v>
       </c>
       <c r="N603">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="4:14" x14ac:dyDescent="0.3">
@@ -22740,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="N604">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="4:14" x14ac:dyDescent="0.3">
@@ -22775,7 +22848,7 @@
         <v>0</v>
       </c>
       <c r="N605">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="4:14" x14ac:dyDescent="0.3">
@@ -22810,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="N606">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="4:14" x14ac:dyDescent="0.3">
@@ -22845,7 +22918,7 @@
         <v>0</v>
       </c>
       <c r="N607">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="4:14" x14ac:dyDescent="0.3">
@@ -22880,7 +22953,7 @@
         <v>0</v>
       </c>
       <c r="N608">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="4:14" x14ac:dyDescent="0.3">
@@ -22915,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="N609">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="4:14" x14ac:dyDescent="0.3">
@@ -22950,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="N610">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="4:14" x14ac:dyDescent="0.3">
@@ -22985,7 +23058,7 @@
         <v>0</v>
       </c>
       <c r="N611">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="4:14" x14ac:dyDescent="0.3">
@@ -23020,7 +23093,7 @@
         <v>0</v>
       </c>
       <c r="N612">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="4:14" x14ac:dyDescent="0.3">
@@ -23055,7 +23128,7 @@
         <v>0</v>
       </c>
       <c r="N613">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="4:14" x14ac:dyDescent="0.3">
@@ -23090,7 +23163,7 @@
         <v>0</v>
       </c>
       <c r="N614">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="4:14" x14ac:dyDescent="0.3">
@@ -23125,7 +23198,7 @@
         <v>0</v>
       </c>
       <c r="N615">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="4:14" x14ac:dyDescent="0.3">
@@ -23160,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="N616">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="4:14" x14ac:dyDescent="0.3">
@@ -23195,7 +23268,7 @@
         <v>0</v>
       </c>
       <c r="N617">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="4:14" x14ac:dyDescent="0.3">
@@ -23230,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="N618">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="4:14" x14ac:dyDescent="0.3">
@@ -23265,7 +23338,7 @@
         <v>0</v>
       </c>
       <c r="N619">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="4:14" x14ac:dyDescent="0.3">
@@ -23300,7 +23373,7 @@
         <v>0</v>
       </c>
       <c r="N620">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="4:14" x14ac:dyDescent="0.3">
@@ -23335,7 +23408,7 @@
         <v>0</v>
       </c>
       <c r="N621">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="4:14" x14ac:dyDescent="0.3">
@@ -23370,7 +23443,7 @@
         <v>0</v>
       </c>
       <c r="N622">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="4:14" x14ac:dyDescent="0.3">
@@ -23405,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="N623">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="4:14" x14ac:dyDescent="0.3">
@@ -23440,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="N624">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="4:14" x14ac:dyDescent="0.3">
@@ -23475,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="N625">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="4:14" x14ac:dyDescent="0.3">
@@ -23510,7 +23583,7 @@
         <v>0</v>
       </c>
       <c r="N626">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="4:14" x14ac:dyDescent="0.3">
@@ -23545,7 +23618,7 @@
         <v>0</v>
       </c>
       <c r="N627">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="4:14" x14ac:dyDescent="0.3">
@@ -23580,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="N628">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="4:14" x14ac:dyDescent="0.3">
@@ -23615,7 +23688,7 @@
         <v>0</v>
       </c>
       <c r="N629">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="4:14" x14ac:dyDescent="0.3">
@@ -23650,7 +23723,7 @@
         <v>0</v>
       </c>
       <c r="N630">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="4:14" x14ac:dyDescent="0.3">
@@ -23685,7 +23758,7 @@
         <v>0</v>
       </c>
       <c r="N631">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="4:14" x14ac:dyDescent="0.3">
@@ -23720,7 +23793,7 @@
         <v>0</v>
       </c>
       <c r="N632">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="4:14" x14ac:dyDescent="0.3">
@@ -23755,7 +23828,7 @@
         <v>0</v>
       </c>
       <c r="N633">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="4:14" x14ac:dyDescent="0.3">
@@ -23790,7 +23863,7 @@
         <v>0</v>
       </c>
       <c r="N634">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="4:14" x14ac:dyDescent="0.3">
@@ -23825,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="N635">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="4:14" x14ac:dyDescent="0.3">
@@ -23860,7 +23933,7 @@
         <v>0</v>
       </c>
       <c r="N636">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="4:14" x14ac:dyDescent="0.3">
@@ -23895,7 +23968,7 @@
         <v>0</v>
       </c>
       <c r="N637">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="4:14" x14ac:dyDescent="0.3">
@@ -23930,7 +24003,7 @@
         <v>0</v>
       </c>
       <c r="N638">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="4:14" x14ac:dyDescent="0.3">
@@ -23965,7 +24038,7 @@
         <v>0</v>
       </c>
       <c r="N639">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="4:14" x14ac:dyDescent="0.3">
@@ -24000,7 +24073,7 @@
         <v>0</v>
       </c>
       <c r="N640">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="4:14" x14ac:dyDescent="0.3">
@@ -24035,7 +24108,7 @@
         <v>0</v>
       </c>
       <c r="N641">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="4:14" x14ac:dyDescent="0.3">
@@ -24070,7 +24143,7 @@
         <v>0</v>
       </c>
       <c r="N642">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="4:14" x14ac:dyDescent="0.3">
@@ -24105,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="N643">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="4:14" x14ac:dyDescent="0.3">
@@ -24140,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="N644">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="4:14" x14ac:dyDescent="0.3">
@@ -24175,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="N645">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="4:14" x14ac:dyDescent="0.3">
@@ -24210,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="N646">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="4:14" x14ac:dyDescent="0.3">
@@ -24245,7 +24318,7 @@
         <v>0</v>
       </c>
       <c r="N647">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="4:14" x14ac:dyDescent="0.3">
@@ -24280,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="N648">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="4:14" x14ac:dyDescent="0.3">
@@ -24315,7 +24388,7 @@
         <v>0</v>
       </c>
       <c r="N649">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="4:14" x14ac:dyDescent="0.3">
@@ -24350,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="N650">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="4:14" x14ac:dyDescent="0.3">
@@ -24385,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="N651">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="4:14" x14ac:dyDescent="0.3">
@@ -24420,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="N652">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="4:14" x14ac:dyDescent="0.3">
@@ -24455,7 +24528,7 @@
         <v>0</v>
       </c>
       <c r="N653">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="4:14" x14ac:dyDescent="0.3">
@@ -24490,7 +24563,7 @@
         <v>0</v>
       </c>
       <c r="N654">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="4:14" x14ac:dyDescent="0.3">
@@ -24525,7 +24598,7 @@
         <v>0</v>
       </c>
       <c r="N655">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="4:14" x14ac:dyDescent="0.3">
@@ -24560,7 +24633,7 @@
         <v>0</v>
       </c>
       <c r="N656">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="4:14" x14ac:dyDescent="0.3">
@@ -24595,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="N657">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="4:14" x14ac:dyDescent="0.3">
@@ -24630,7 +24703,7 @@
         <v>0</v>
       </c>
       <c r="N658">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="4:14" x14ac:dyDescent="0.3">
@@ -24665,7 +24738,7 @@
         <v>0</v>
       </c>
       <c r="N659">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="4:14" x14ac:dyDescent="0.3">
@@ -24700,7 +24773,7 @@
         <v>0</v>
       </c>
       <c r="N660">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="4:14" x14ac:dyDescent="0.3">
@@ -24735,7 +24808,7 @@
         <v>0</v>
       </c>
       <c r="N661">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="4:14" x14ac:dyDescent="0.3">
@@ -24770,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="N662">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="4:14" x14ac:dyDescent="0.3">
@@ -24805,7 +24878,7 @@
         <v>0</v>
       </c>
       <c r="N663">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="4:14" x14ac:dyDescent="0.3">
@@ -24840,7 +24913,7 @@
         <v>0</v>
       </c>
       <c r="N664">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="4:14" x14ac:dyDescent="0.3">
@@ -24875,7 +24948,7 @@
         <v>0</v>
       </c>
       <c r="N665">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="4:14" x14ac:dyDescent="0.3">
@@ -24910,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="N666">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="4:14" x14ac:dyDescent="0.3">
@@ -24945,7 +25018,7 @@
         <v>0</v>
       </c>
       <c r="N667">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="4:14" x14ac:dyDescent="0.3">
@@ -24980,7 +25053,7 @@
         <v>0</v>
       </c>
       <c r="N668">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="4:14" x14ac:dyDescent="0.3">
@@ -25015,7 +25088,7 @@
         <v>0</v>
       </c>
       <c r="N669">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="4:14" x14ac:dyDescent="0.3">
@@ -25050,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="N670">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="4:14" x14ac:dyDescent="0.3">
@@ -25085,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="N671">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="4:14" x14ac:dyDescent="0.3">
@@ -25120,7 +25193,7 @@
         <v>0</v>
       </c>
       <c r="N672">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="4:14" x14ac:dyDescent="0.3">
@@ -25155,7 +25228,7 @@
         <v>0</v>
       </c>
       <c r="N673">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="4:14" x14ac:dyDescent="0.3">
@@ -25190,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="N674">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="675" spans="4:14" x14ac:dyDescent="0.3">
@@ -25225,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="N675">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="676" spans="4:14" x14ac:dyDescent="0.3">
@@ -25260,7 +25333,7 @@
         <v>0</v>
       </c>
       <c r="N676">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="4:14" x14ac:dyDescent="0.3">
@@ -25295,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="N677">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="4:14" x14ac:dyDescent="0.3">
@@ -25330,7 +25403,7 @@
         <v>0</v>
       </c>
       <c r="N678">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679" spans="4:14" x14ac:dyDescent="0.3">
@@ -25365,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="N679">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="4:14" x14ac:dyDescent="0.3">
@@ -25400,7 +25473,7 @@
         <v>0</v>
       </c>
       <c r="N680">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="681" spans="4:14" x14ac:dyDescent="0.3">
@@ -25435,7 +25508,7 @@
         <v>0</v>
       </c>
       <c r="N681">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="4:14" x14ac:dyDescent="0.3">
@@ -25470,7 +25543,7 @@
         <v>0</v>
       </c>
       <c r="N682">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="4:14" x14ac:dyDescent="0.3">
@@ -25505,7 +25578,7 @@
         <v>0</v>
       </c>
       <c r="N683">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="4:14" x14ac:dyDescent="0.3">
@@ -25540,7 +25613,7 @@
         <v>0</v>
       </c>
       <c r="N684">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="4:14" x14ac:dyDescent="0.3">
@@ -25575,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="N685">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="4:14" x14ac:dyDescent="0.3">
@@ -25610,7 +25683,7 @@
         <v>0</v>
       </c>
       <c r="N686">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="4:14" x14ac:dyDescent="0.3">
@@ -25645,7 +25718,7 @@
         <v>0</v>
       </c>
       <c r="N687">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="4:14" x14ac:dyDescent="0.3">
@@ -25680,7 +25753,7 @@
         <v>0</v>
       </c>
       <c r="N688">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="4:14" x14ac:dyDescent="0.3">
@@ -25715,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="N689">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="4:14" x14ac:dyDescent="0.3">
@@ -25750,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="N690">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="4:14" x14ac:dyDescent="0.3">
@@ -25785,7 +25858,7 @@
         <v>0</v>
       </c>
       <c r="N691">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="4:14" x14ac:dyDescent="0.3">
@@ -25820,7 +25893,7 @@
         <v>0</v>
       </c>
       <c r="N692">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="4:14" x14ac:dyDescent="0.3">
@@ -25855,7 +25928,7 @@
         <v>0</v>
       </c>
       <c r="N693">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="4:14" x14ac:dyDescent="0.3">
@@ -25890,7 +25963,7 @@
         <v>0</v>
       </c>
       <c r="N694">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="4:14" x14ac:dyDescent="0.3">
@@ -25925,7 +25998,7 @@
         <v>0</v>
       </c>
       <c r="N695">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="4:14" x14ac:dyDescent="0.3">
@@ -25960,7 +26033,7 @@
         <v>0</v>
       </c>
       <c r="N696">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="4:14" x14ac:dyDescent="0.3">
@@ -25995,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="N697">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="4:14" x14ac:dyDescent="0.3">
@@ -26030,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="N698">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="4:14" x14ac:dyDescent="0.3">
@@ -26065,7 +26138,7 @@
         <v>0</v>
       </c>
       <c r="N699">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="4:14" x14ac:dyDescent="0.3">
@@ -26100,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="N700">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="4:14" x14ac:dyDescent="0.3">
@@ -26135,7 +26208,7 @@
         <v>0</v>
       </c>
       <c r="N701">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="4:14" x14ac:dyDescent="0.3">
@@ -26170,7 +26243,7 @@
         <v>0</v>
       </c>
       <c r="N702">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="4:14" x14ac:dyDescent="0.3">
@@ -26205,7 +26278,7 @@
         <v>0</v>
       </c>
       <c r="N703">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="4:14" x14ac:dyDescent="0.3">
@@ -26240,7 +26313,7 @@
         <v>0</v>
       </c>
       <c r="N704">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="4:14" x14ac:dyDescent="0.3">
@@ -26275,7 +26348,7 @@
         <v>0</v>
       </c>
       <c r="N705">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="4:14" x14ac:dyDescent="0.3">
@@ -26310,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="N706">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="4:14" x14ac:dyDescent="0.3">
@@ -26345,7 +26418,7 @@
         <v>0</v>
       </c>
       <c r="N707">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="4:14" x14ac:dyDescent="0.3">
@@ -26380,7 +26453,7 @@
         <v>0</v>
       </c>
       <c r="N708">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="4:14" x14ac:dyDescent="0.3">
@@ -26415,7 +26488,7 @@
         <v>0</v>
       </c>
       <c r="N709">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="4:14" x14ac:dyDescent="0.3">
@@ -26450,7 +26523,7 @@
         <v>0</v>
       </c>
       <c r="N710">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="4:14" x14ac:dyDescent="0.3">
@@ -26485,7 +26558,7 @@
         <v>0</v>
       </c>
       <c r="N711">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="4:14" x14ac:dyDescent="0.3">
@@ -26520,7 +26593,7 @@
         <v>0</v>
       </c>
       <c r="N712">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="4:14" x14ac:dyDescent="0.3">
@@ -26555,7 +26628,7 @@
         <v>0</v>
       </c>
       <c r="N713">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="4:14" x14ac:dyDescent="0.3">
@@ -26590,7 +26663,7 @@
         <v>0</v>
       </c>
       <c r="N714">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="4:14" x14ac:dyDescent="0.3">
@@ -26625,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="N715">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="4:14" x14ac:dyDescent="0.3">
@@ -26660,7 +26733,7 @@
         <v>0</v>
       </c>
       <c r="N716">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="4:14" x14ac:dyDescent="0.3">
@@ -26695,7 +26768,7 @@
         <v>0</v>
       </c>
       <c r="N717">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="4:14" x14ac:dyDescent="0.3">
@@ -26730,7 +26803,7 @@
         <v>0</v>
       </c>
       <c r="N718">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="4:14" x14ac:dyDescent="0.3">
@@ -26765,7 +26838,7 @@
         <v>0</v>
       </c>
       <c r="N719">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="4:14" x14ac:dyDescent="0.3">
@@ -26800,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="N720">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="4:14" x14ac:dyDescent="0.3">
@@ -26835,7 +26908,7 @@
         <v>0</v>
       </c>
       <c r="N721">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="4:14" x14ac:dyDescent="0.3">
@@ -26870,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N722">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="4:14" x14ac:dyDescent="0.3">
@@ -26905,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="N723">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="724" spans="4:14" x14ac:dyDescent="0.3">
@@ -26940,7 +27013,7 @@
         <v>0</v>
       </c>
       <c r="N724">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="4:14" x14ac:dyDescent="0.3">
@@ -26975,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="N725">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="4:14" x14ac:dyDescent="0.3">
@@ -27010,7 +27083,7 @@
         <v>0</v>
       </c>
       <c r="N726">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="4:14" x14ac:dyDescent="0.3">
@@ -27045,7 +27118,7 @@
         <v>0</v>
       </c>
       <c r="N727">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="4:14" x14ac:dyDescent="0.3">
@@ -27080,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="N728">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="4:14" x14ac:dyDescent="0.3">
@@ -27115,7 +27188,7 @@
         <v>0</v>
       </c>
       <c r="N729">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="4:14" x14ac:dyDescent="0.3">
@@ -27150,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="N730">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="4:14" x14ac:dyDescent="0.3">
@@ -27185,7 +27258,7 @@
         <v>0</v>
       </c>
       <c r="N731">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="4:14" x14ac:dyDescent="0.3">
@@ -27220,7 +27293,7 @@
         <v>0</v>
       </c>
       <c r="N732">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="4:14" x14ac:dyDescent="0.3">
@@ -27255,7 +27328,7 @@
         <v>0</v>
       </c>
       <c r="N733">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="4:14" x14ac:dyDescent="0.3">
@@ -27290,7 +27363,7 @@
         <v>0</v>
       </c>
       <c r="N734">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="4:14" x14ac:dyDescent="0.3">
@@ -27325,7 +27398,7 @@
         <v>0</v>
       </c>
       <c r="N735">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="4:14" x14ac:dyDescent="0.3">
@@ -27360,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="N736">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="4:14" x14ac:dyDescent="0.3">
@@ -27395,7 +27468,7 @@
         <v>0</v>
       </c>
       <c r="N737">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="4:14" x14ac:dyDescent="0.3">
@@ -27430,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="N738">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="4:14" x14ac:dyDescent="0.3">
@@ -27465,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="N739">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="4:14" x14ac:dyDescent="0.3">
@@ -27500,7 +27573,7 @@
         <v>0</v>
       </c>
       <c r="N740">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="4:14" x14ac:dyDescent="0.3">
@@ -27535,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="N741">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="4:14" x14ac:dyDescent="0.3">
@@ -27570,7 +27643,7 @@
         <v>0</v>
       </c>
       <c r="N742">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="4:14" x14ac:dyDescent="0.3">
@@ -27605,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="N743">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="4:14" x14ac:dyDescent="0.3">
@@ -27640,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="N744">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="4:14" x14ac:dyDescent="0.3">
@@ -27675,7 +27748,7 @@
         <v>0</v>
       </c>
       <c r="N745">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="4:14" x14ac:dyDescent="0.3">
@@ -27710,7 +27783,7 @@
         <v>0</v>
       </c>
       <c r="N746">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="4:14" x14ac:dyDescent="0.3">
@@ -27745,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="N747">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="4:14" x14ac:dyDescent="0.3">
@@ -27780,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="N748">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="4:14" x14ac:dyDescent="0.3">
@@ -27815,7 +27888,7 @@
         <v>0</v>
       </c>
       <c r="N749">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="4:14" x14ac:dyDescent="0.3">
@@ -27850,7 +27923,7 @@
         <v>0</v>
       </c>
       <c r="N750">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="4:14" x14ac:dyDescent="0.3">
@@ -27885,7 +27958,7 @@
         <v>0</v>
       </c>
       <c r="N751">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="4:14" x14ac:dyDescent="0.3">
@@ -27920,7 +27993,7 @@
         <v>0</v>
       </c>
       <c r="N752">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="4:14" x14ac:dyDescent="0.3">
@@ -27955,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="N753">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="4:14" x14ac:dyDescent="0.3">
@@ -27990,7 +28063,7 @@
         <v>0</v>
       </c>
       <c r="N754">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="4:14" x14ac:dyDescent="0.3">
@@ -28025,7 +28098,7 @@
         <v>0</v>
       </c>
       <c r="N755">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="4:14" x14ac:dyDescent="0.3">
@@ -28060,7 +28133,7 @@
         <v>0</v>
       </c>
       <c r="N756">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="4:14" x14ac:dyDescent="0.3">
@@ -28095,7 +28168,7 @@
         <v>0</v>
       </c>
       <c r="N757">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="758" spans="4:14" x14ac:dyDescent="0.3">
@@ -28130,7 +28203,7 @@
         <v>0</v>
       </c>
       <c r="N758">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="4:14" x14ac:dyDescent="0.3">
@@ -28165,7 +28238,7 @@
         <v>0</v>
       </c>
       <c r="N759">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="4:14" x14ac:dyDescent="0.3">
@@ -28200,7 +28273,7 @@
         <v>0</v>
       </c>
       <c r="N760">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="4:14" x14ac:dyDescent="0.3">
@@ -28235,7 +28308,7 @@
         <v>0</v>
       </c>
       <c r="N761">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="762" spans="4:14" x14ac:dyDescent="0.3">
@@ -28270,7 +28343,7 @@
         <v>0</v>
       </c>
       <c r="N762">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="4:14" x14ac:dyDescent="0.3">
@@ -28305,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="N763">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="4:14" x14ac:dyDescent="0.3">
@@ -28340,7 +28413,7 @@
         <v>0</v>
       </c>
       <c r="N764">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="4:14" x14ac:dyDescent="0.3">
@@ -28375,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="N765">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="4:14" x14ac:dyDescent="0.3">
@@ -28410,7 +28483,7 @@
         <v>0</v>
       </c>
       <c r="N766">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="4:14" x14ac:dyDescent="0.3">
@@ -28445,7 +28518,7 @@
         <v>0</v>
       </c>
       <c r="N767">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768" spans="4:14" x14ac:dyDescent="0.3">
@@ -28480,7 +28553,7 @@
         <v>0</v>
       </c>
       <c r="N768">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="4:14" x14ac:dyDescent="0.3">
@@ -28515,7 +28588,7 @@
         <v>0</v>
       </c>
       <c r="N769">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="770" spans="4:14" x14ac:dyDescent="0.3">
@@ -28550,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="N770">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="4:14" x14ac:dyDescent="0.3">
@@ -28585,7 +28658,7 @@
         <v>0</v>
       </c>
       <c r="N771">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="772" spans="4:14" x14ac:dyDescent="0.3">
@@ -28620,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="N772">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="773" spans="4:14" x14ac:dyDescent="0.3">
@@ -28655,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="N773">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="4:14" x14ac:dyDescent="0.3">
@@ -28690,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="N774">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="775" spans="4:14" x14ac:dyDescent="0.3">
@@ -28725,7 +28798,7 @@
         <v>0</v>
       </c>
       <c r="N775">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="4:14" x14ac:dyDescent="0.3">
@@ -28760,7 +28833,7 @@
         <v>0</v>
       </c>
       <c r="N776">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="777" spans="4:14" x14ac:dyDescent="0.3">
@@ -28795,7 +28868,7 @@
         <v>0</v>
       </c>
       <c r="N777">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="4:14" x14ac:dyDescent="0.3">
@@ -28830,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="N778">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="4:14" x14ac:dyDescent="0.3">
@@ -28865,7 +28938,7 @@
         <v>0</v>
       </c>
       <c r="N779">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="4:14" x14ac:dyDescent="0.3">
@@ -28900,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="N780">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="4:14" x14ac:dyDescent="0.3">
@@ -28935,7 +29008,7 @@
         <v>0</v>
       </c>
       <c r="N781">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="4:14" x14ac:dyDescent="0.3">
@@ -28970,7 +29043,7 @@
         <v>0</v>
       </c>
       <c r="N782">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="4:14" x14ac:dyDescent="0.3">
@@ -29005,7 +29078,7 @@
         <v>0</v>
       </c>
       <c r="N783">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="4:14" x14ac:dyDescent="0.3">
@@ -29040,7 +29113,7 @@
         <v>0</v>
       </c>
       <c r="N784">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="4:14" x14ac:dyDescent="0.3">
@@ -29075,7 +29148,7 @@
         <v>0</v>
       </c>
       <c r="N785">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="4:14" x14ac:dyDescent="0.3">
@@ -29110,7 +29183,7 @@
         <v>0</v>
       </c>
       <c r="N786">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="4:14" x14ac:dyDescent="0.3">
@@ -29145,7 +29218,7 @@
         <v>0</v>
       </c>
       <c r="N787">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="4:14" x14ac:dyDescent="0.3">
@@ -29180,7 +29253,7 @@
         <v>0</v>
       </c>
       <c r="N788">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="4:14" x14ac:dyDescent="0.3">
@@ -29215,7 +29288,7 @@
         <v>0</v>
       </c>
       <c r="N789">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="4:14" x14ac:dyDescent="0.3">
@@ -29250,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="N790">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="4:14" x14ac:dyDescent="0.3">
@@ -29285,7 +29358,7 @@
         <v>0</v>
       </c>
       <c r="N791">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="4:14" x14ac:dyDescent="0.3">
@@ -29320,7 +29393,7 @@
         <v>0</v>
       </c>
       <c r="N792">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="4:14" x14ac:dyDescent="0.3">
@@ -29355,7 +29428,7 @@
         <v>0</v>
       </c>
       <c r="N793">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="4:14" x14ac:dyDescent="0.3">
@@ -29390,7 +29463,7 @@
         <v>0</v>
       </c>
       <c r="N794">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="4:14" x14ac:dyDescent="0.3">
@@ -29425,7 +29498,7 @@
         <v>0</v>
       </c>
       <c r="N795">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="4:14" x14ac:dyDescent="0.3">
@@ -35591,6 +35664,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SuppXLS/Scen_HistCapGen_restart.xlsx
+++ b/SuppXLS/Scen_HistCapGen_restart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\IEMM_v60_10-1\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD46FC5-E7D2-47F1-AA3F-C38EE8FE8C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158B214E-C1A7-4C9E-AC58-7F88A4F48971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="23040" windowHeight="12072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="5" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7294" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8257" uniqueCount="142">
   <si>
     <t>~UC_SETS: R_E: AllRegions</t>
   </si>
@@ -487,10 +487,22 @@
     <t>UC_Calib_CFs_shucpwsELEup</t>
   </si>
   <si>
-    <t xml:space="preserve">Changed all "interpolation and forward extrapolation rules" to "interpolation and no extrapolation". Some of these Ucs induced to dummy imports in the region USA. </t>
+    <t>MahmoudMobir</t>
   </si>
   <si>
-    <t>MahmoudMobir</t>
+    <t>Deactivated~TFM_INS-TS</t>
+  </si>
+  <si>
+    <t>NCAP_CHPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changed all "interpolation and forward extrapolation" rules to "interpolation and no extrapolation" in the utiliszation_limlits UCs. Some of these UCs induced to dummy imports in the region USA. </t>
+  </si>
+  <si>
+    <t>MahmoudMObir</t>
+  </si>
+  <si>
+    <t>Changed the heat to power rate equations from FX to UP. Having FX equations leads to negative heat prices in the model. This is just a workaround. Will troubleshoot this issue when mitigation techs will have been added to the model</t>
   </si>
 </sst>
 </file>
@@ -919,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1031,10 +1043,21 @@
         <v>44549</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>44552</v>
+      </c>
+      <c r="B18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -44096,9 +44119,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E920807-DAB9-4B95-9878-BCAF3E38C546}">
-  <dimension ref="A1:AG283"/>
+  <dimension ref="A1:AM283"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -44114,9 +44139,11 @@
     <col min="28" max="28" width="4.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
@@ -44127,12 +44154,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -44209,8 +44239,26 @@
       <c r="AD3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AJ3">
+        <v>2018</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -44276,8 +44324,26 @@
       <c r="AD4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -44329,8 +44395,26 @@
       <c r="AD5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ5">
+        <v>2</v>
+      </c>
+      <c r="AK5">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -44398,8 +44482,26 @@
       <c r="AD6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ6">
+        <v>2</v>
+      </c>
+      <c r="AK6">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -44451,8 +44553,26 @@
       <c r="AD7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ7">
+        <v>2</v>
+      </c>
+      <c r="AK7">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -44504,8 +44624,26 @@
       <c r="AD8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8">
+        <v>2</v>
+      </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -44557,8 +44695,26 @@
       <c r="AD9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ9">
+        <v>2</v>
+      </c>
+      <c r="AK9">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -44610,8 +44766,26 @@
       <c r="AD10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ10">
+        <v>2</v>
+      </c>
+      <c r="AK10">
+        <v>3</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -44677,8 +44851,26 @@
       <c r="AD11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ11">
+        <v>2</v>
+      </c>
+      <c r="AK11">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -44730,8 +44922,26 @@
       <c r="AD12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12">
+        <v>2</v>
+      </c>
+      <c r="AK12">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -44799,8 +45009,26 @@
       <c r="AD13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>3</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -44852,8 +45080,26 @@
       <c r="AD14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ14">
+        <v>2</v>
+      </c>
+      <c r="AK14">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -44905,8 +45151,26 @@
       <c r="AD15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ15">
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -44958,8 +45222,26 @@
       <c r="AD16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>3</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -45043,8 +45325,26 @@
       <c r="AD17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>3</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -45128,8 +45428,26 @@
       <c r="AD18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -45213,8 +45531,26 @@
       <c r="AD19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ19">
+        <v>2</v>
+      </c>
+      <c r="AK19">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -45298,8 +45634,26 @@
       <c r="AD20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ20">
+        <v>2</v>
+      </c>
+      <c r="AK20">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -45369,8 +45723,26 @@
       <c r="AD21" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>3</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -45422,8 +45794,26 @@
       <c r="AD22" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -45507,8 +45897,26 @@
       <c r="AD23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -45592,8 +46000,26 @@
       <c r="AD24" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>3</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -45677,8 +46103,26 @@
       <c r="AD25" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ25">
+        <v>2</v>
+      </c>
+      <c r="AK25">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>44</v>
       </c>
@@ -45762,8 +46206,26 @@
       <c r="AD26" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ26">
+        <v>2</v>
+      </c>
+      <c r="AK26">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -45847,8 +46309,26 @@
       <c r="AD27" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ27">
+        <v>2</v>
+      </c>
+      <c r="AK27">
+        <v>3</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -45900,8 +46380,26 @@
       <c r="AD28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ28">
+        <v>2</v>
+      </c>
+      <c r="AK28">
+        <v>3</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -45973,8 +46471,26 @@
       <c r="AD29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ29">
+        <v>2</v>
+      </c>
+      <c r="AK29">
+        <v>3</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -46026,8 +46542,26 @@
       <c r="AD30" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH30" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ30">
+        <v>2</v>
+      </c>
+      <c r="AK30">
+        <v>3</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -46079,8 +46613,26 @@
       <c r="AD31" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH31" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ31">
+        <v>2</v>
+      </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -46164,8 +46716,26 @@
       <c r="AD32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH32" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ32">
+        <v>2</v>
+      </c>
+      <c r="AK32">
+        <v>3</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -46249,8 +46819,26 @@
       <c r="AD33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH33" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -46302,8 +46890,26 @@
       <c r="AD34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH34" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>3</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -46387,8 +46993,26 @@
       <c r="AD35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH35" t="s">
+        <v>45</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ35">
+        <v>2</v>
+      </c>
+      <c r="AK35">
+        <v>3</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>46</v>
       </c>
@@ -46440,8 +47064,26 @@
       <c r="AD36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH36" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ36">
+        <v>2</v>
+      </c>
+      <c r="AK36">
+        <v>3</v>
+      </c>
+      <c r="AL36" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -46519,8 +47161,26 @@
       <c r="AD37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH37" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>3</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -46572,8 +47232,26 @@
       <c r="AD38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH38" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ38">
+        <v>2</v>
+      </c>
+      <c r="AK38">
+        <v>3</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -46651,8 +47329,26 @@
       <c r="AD39" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH39" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ39">
+        <v>2</v>
+      </c>
+      <c r="AK39">
+        <v>3</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -46704,8 +47400,26 @@
       <c r="AD40" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH40" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ40">
+        <v>2</v>
+      </c>
+      <c r="AK40">
+        <v>3</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>46</v>
       </c>
@@ -46757,8 +47471,26 @@
       <c r="AD41" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="42" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH41" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ41">
+        <v>2</v>
+      </c>
+      <c r="AK41">
+        <v>3</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -46810,8 +47542,26 @@
       <c r="AD42" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="43" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH42" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ42">
+        <v>2</v>
+      </c>
+      <c r="AK42">
+        <v>3</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -46863,8 +47613,26 @@
       <c r="AD43" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH43" t="s">
+        <v>46</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ43">
+        <v>2</v>
+      </c>
+      <c r="AK43">
+        <v>3</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -46948,8 +47716,26 @@
       <c r="AD44" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH44" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>3</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -47001,8 +47787,26 @@
       <c r="AD45" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH45" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ45">
+        <v>2</v>
+      </c>
+      <c r="AK45">
+        <v>3</v>
+      </c>
+      <c r="AL45" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -47054,8 +47858,26 @@
       <c r="AD46" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH46" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>3</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -47107,8 +47929,26 @@
       <c r="AD47" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="48" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH47" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>3</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -47160,8 +48000,26 @@
       <c r="AD48" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH48" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ48">
+        <v>2</v>
+      </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -47213,8 +48071,26 @@
       <c r="AD49" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH49" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>3</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -47298,8 +48174,26 @@
       <c r="AD50" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH50" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>3</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -47383,8 +48277,26 @@
       <c r="AD51" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="52" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>3</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -47468,8 +48380,26 @@
       <c r="AD52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH52" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>3</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -47553,8 +48483,26 @@
       <c r="AD53" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH53" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>3</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -47638,8 +48586,26 @@
       <c r="AD54" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH54" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ54">
+        <v>2</v>
+      </c>
+      <c r="AK54">
+        <v>3</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
@@ -47719,8 +48685,26 @@
       <c r="AD55" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH55" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>3</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -47800,8 +48784,26 @@
       <c r="AD56" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH56" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>3</v>
+      </c>
+      <c r="AL56" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -47881,8 +48883,26 @@
       <c r="AD57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH57" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ57">
+        <v>2</v>
+      </c>
+      <c r="AK57">
+        <v>3</v>
+      </c>
+      <c r="AL57" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>50</v>
       </c>
@@ -47962,8 +48982,26 @@
       <c r="AD58" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="59" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH58" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ58">
+        <v>2</v>
+      </c>
+      <c r="AK58">
+        <v>3</v>
+      </c>
+      <c r="AL58" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -47995,8 +49033,26 @@
       <c r="AD59" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH59" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>3</v>
+      </c>
+      <c r="AL59" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -48028,8 +49084,26 @@
       <c r="AD60" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH60" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ60">
+        <v>2</v>
+      </c>
+      <c r="AK60">
+        <v>3</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -48061,8 +49135,26 @@
       <c r="AD61" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH61" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>3</v>
+      </c>
+      <c r="AL61" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -48094,8 +49186,26 @@
       <c r="AD62" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH62" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ62">
+        <v>2</v>
+      </c>
+      <c r="AK62">
+        <v>3</v>
+      </c>
+      <c r="AL62" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -48127,8 +49237,26 @@
       <c r="AD63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH63" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ63">
+        <v>2</v>
+      </c>
+      <c r="AK63">
+        <v>3</v>
+      </c>
+      <c r="AL63" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -48160,8 +49288,26 @@
       <c r="AD64" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH64" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>3</v>
+      </c>
+      <c r="AL64" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -48193,8 +49339,26 @@
       <c r="AD65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH65" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ65">
+        <v>2</v>
+      </c>
+      <c r="AK65">
+        <v>3</v>
+      </c>
+      <c r="AL65" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>53</v>
       </c>
@@ -48226,8 +49390,26 @@
       <c r="AD66" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH66" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ66">
+        <v>2</v>
+      </c>
+      <c r="AK66">
+        <v>3</v>
+      </c>
+      <c r="AL66" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -48259,8 +49441,26 @@
       <c r="AD67" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH67" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ67">
+        <v>2</v>
+      </c>
+      <c r="AK67">
+        <v>3</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>53</v>
       </c>
@@ -48292,8 +49492,26 @@
       <c r="AD68" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH68" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ68">
+        <v>2</v>
+      </c>
+      <c r="AK68">
+        <v>3</v>
+      </c>
+      <c r="AL68" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -48325,8 +49543,26 @@
       <c r="AD69" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH69" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69">
+        <v>3</v>
+      </c>
+      <c r="AL69" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>53</v>
       </c>
@@ -48358,8 +49594,26 @@
       <c r="AD70" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH70" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ70">
+        <v>2</v>
+      </c>
+      <c r="AK70">
+        <v>3</v>
+      </c>
+      <c r="AL70" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>53</v>
       </c>
@@ -48391,8 +49645,26 @@
       <c r="AD71" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH71" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ71">
+        <v>2</v>
+      </c>
+      <c r="AK71">
+        <v>3</v>
+      </c>
+      <c r="AL71" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>53</v>
       </c>
@@ -48424,8 +49696,26 @@
       <c r="AD72" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH72" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>3</v>
+      </c>
+      <c r="AL72" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -48457,8 +49747,26 @@
       <c r="AD73" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH73" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ73">
+        <v>2</v>
+      </c>
+      <c r="AK73">
+        <v>3</v>
+      </c>
+      <c r="AL73" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>54</v>
       </c>
@@ -48490,8 +49798,26 @@
       <c r="AD74" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH74" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ74">
+        <v>2</v>
+      </c>
+      <c r="AK74">
+        <v>3</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>54</v>
       </c>
@@ -48523,8 +49849,26 @@
       <c r="AD75" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH75" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>3</v>
+      </c>
+      <c r="AL75" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -48556,8 +49900,26 @@
       <c r="AD76" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH76" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>3</v>
+      </c>
+      <c r="AL76" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -48589,8 +49951,26 @@
       <c r="AD77" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH77" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ77">
+        <v>2</v>
+      </c>
+      <c r="AK77">
+        <v>3</v>
+      </c>
+      <c r="AL77" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -48622,8 +50002,26 @@
       <c r="AD78" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH78" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ78">
+        <v>2</v>
+      </c>
+      <c r="AK78">
+        <v>3</v>
+      </c>
+      <c r="AL78" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>54</v>
       </c>
@@ -48655,8 +50053,26 @@
       <c r="AD79" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ79">
+        <v>2</v>
+      </c>
+      <c r="AK79">
+        <v>3</v>
+      </c>
+      <c r="AL79" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -48688,8 +50104,26 @@
       <c r="AD80" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH80" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ80">
+        <v>2</v>
+      </c>
+      <c r="AK80">
+        <v>3</v>
+      </c>
+      <c r="AL80" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>55</v>
       </c>
@@ -48769,8 +50203,26 @@
       <c r="AD81" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH81" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>3</v>
+      </c>
+      <c r="AL81" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -48802,8 +50254,26 @@
       <c r="AD82" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH82" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>3</v>
+      </c>
+      <c r="AL82" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>55</v>
       </c>
@@ -48883,8 +50353,26 @@
       <c r="AD83" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH83" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ83">
+        <v>2</v>
+      </c>
+      <c r="AK83">
+        <v>3</v>
+      </c>
+      <c r="AL83" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -48964,8 +50452,26 @@
       <c r="AD84" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH84" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>3</v>
+      </c>
+      <c r="AL84" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -49045,8 +50551,26 @@
       <c r="AD85" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH85" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ85">
+        <v>2</v>
+      </c>
+      <c r="AK85">
+        <v>3</v>
+      </c>
+      <c r="AL85" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>55</v>
       </c>
@@ -49108,8 +50632,26 @@
       <c r="AD86" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH86" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ86">
+        <v>2</v>
+      </c>
+      <c r="AK86">
+        <v>3</v>
+      </c>
+      <c r="AL86" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>56</v>
       </c>
@@ -49180,8 +50722,26 @@
       <c r="AD87" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH87" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ87">
+        <v>2</v>
+      </c>
+      <c r="AK87">
+        <v>3</v>
+      </c>
+      <c r="AL87" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>56</v>
       </c>
@@ -49261,8 +50821,26 @@
       <c r="AD88" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH88" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ88">
+        <v>2</v>
+      </c>
+      <c r="AK88">
+        <v>3</v>
+      </c>
+      <c r="AL88" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>56</v>
       </c>
@@ -49342,8 +50920,26 @@
       <c r="AD89" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH89" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>3</v>
+      </c>
+      <c r="AL89" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>56</v>
       </c>
@@ -49423,8 +51019,26 @@
       <c r="AD90" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH90" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ90">
+        <v>2</v>
+      </c>
+      <c r="AK90">
+        <v>3</v>
+      </c>
+      <c r="AL90" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>56</v>
       </c>
@@ -49495,8 +51109,26 @@
       <c r="AD91" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH91" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ91">
+        <v>2</v>
+      </c>
+      <c r="AK91">
+        <v>3</v>
+      </c>
+      <c r="AL91" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>56</v>
       </c>
@@ -49567,8 +51199,26 @@
       <c r="AD92" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH92" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ92">
+        <v>2</v>
+      </c>
+      <c r="AK92">
+        <v>3</v>
+      </c>
+      <c r="AL92" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>57</v>
       </c>
@@ -49648,8 +51298,26 @@
       <c r="AD93" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH93" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ93">
+        <v>2</v>
+      </c>
+      <c r="AK93">
+        <v>3</v>
+      </c>
+      <c r="AL93" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>57</v>
       </c>
@@ -49729,8 +51397,26 @@
       <c r="AD94" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH94" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>3</v>
+      </c>
+      <c r="AL94" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>57</v>
       </c>
@@ -49762,8 +51448,26 @@
       <c r="AD95" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH95" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>3</v>
+      </c>
+      <c r="AL95" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>57</v>
       </c>
@@ -49843,8 +51547,26 @@
       <c r="AD96" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH96" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ96">
+        <v>2</v>
+      </c>
+      <c r="AK96">
+        <v>3</v>
+      </c>
+      <c r="AL96" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>57</v>
       </c>
@@ -49876,8 +51598,26 @@
       <c r="AD97" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH97" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ97">
+        <v>2</v>
+      </c>
+      <c r="AK97">
+        <v>3</v>
+      </c>
+      <c r="AL97" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>57</v>
       </c>
@@ -49957,8 +51697,26 @@
       <c r="AD98" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH98" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ98">
+        <v>2</v>
+      </c>
+      <c r="AK98">
+        <v>3</v>
+      </c>
+      <c r="AL98" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>57</v>
       </c>
@@ -50032,8 +51790,26 @@
       <c r="AD99" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH99" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ99">
+        <v>2</v>
+      </c>
+      <c r="AK99">
+        <v>3</v>
+      </c>
+      <c r="AL99" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>57</v>
       </c>
@@ -50113,8 +51889,26 @@
       <c r="AD100" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH100" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>3</v>
+      </c>
+      <c r="AL100" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>58</v>
       </c>
@@ -50176,8 +51970,26 @@
       <c r="AD101" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH101" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ101">
+        <v>2</v>
+      </c>
+      <c r="AK101">
+        <v>3</v>
+      </c>
+      <c r="AL101" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>58</v>
       </c>
@@ -50257,8 +52069,26 @@
       <c r="AD102" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH102" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>3</v>
+      </c>
+      <c r="AL102" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>58</v>
       </c>
@@ -50338,8 +52168,26 @@
       <c r="AD103" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH103" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ103">
+        <v>2</v>
+      </c>
+      <c r="AK103">
+        <v>3</v>
+      </c>
+      <c r="AL103" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>58</v>
       </c>
@@ -50419,8 +52267,26 @@
       <c r="AD104" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH104" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ104">
+        <v>2</v>
+      </c>
+      <c r="AK104">
+        <v>3</v>
+      </c>
+      <c r="AL104" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>58</v>
       </c>
@@ -50482,8 +52348,26 @@
       <c r="AD105" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH105" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ105">
+        <v>2</v>
+      </c>
+      <c r="AK105">
+        <v>3</v>
+      </c>
+      <c r="AL105" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>58</v>
       </c>
@@ -50563,8 +52447,26 @@
       <c r="AD106" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH106" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ106">
+        <v>2</v>
+      </c>
+      <c r="AK106">
+        <v>3</v>
+      </c>
+      <c r="AL106" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>59</v>
       </c>
@@ -50644,8 +52546,26 @@
       <c r="AD107" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH107" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ107">
+        <v>2</v>
+      </c>
+      <c r="AK107">
+        <v>3</v>
+      </c>
+      <c r="AL107" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>59</v>
       </c>
@@ -50725,8 +52645,26 @@
       <c r="AD108" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH108" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ108">
+        <v>2</v>
+      </c>
+      <c r="AK108">
+        <v>3</v>
+      </c>
+      <c r="AL108" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>59</v>
       </c>
@@ -50806,8 +52744,26 @@
       <c r="AD109" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH109" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ109">
+        <v>2</v>
+      </c>
+      <c r="AK109">
+        <v>3</v>
+      </c>
+      <c r="AL109" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>59</v>
       </c>
@@ -50887,8 +52843,26 @@
       <c r="AD110" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH110" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>3</v>
+      </c>
+      <c r="AL110" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM110" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>59</v>
       </c>
@@ -50965,8 +52939,26 @@
       <c r="AD111" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH111" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>3</v>
+      </c>
+      <c r="AL111" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>59</v>
       </c>
@@ -51046,8 +53038,26 @@
       <c r="AD112" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH112" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>3</v>
+      </c>
+      <c r="AL112" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>60</v>
       </c>
@@ -51127,8 +53137,26 @@
       <c r="AD113" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH113" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+      <c r="AK113">
+        <v>3</v>
+      </c>
+      <c r="AL113" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>60</v>
       </c>
@@ -51208,8 +53236,26 @@
       <c r="AD114" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH114" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>3</v>
+      </c>
+      <c r="AL114" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>60</v>
       </c>
@@ -51289,8 +53335,26 @@
       <c r="AD115" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH115" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ115">
+        <v>2</v>
+      </c>
+      <c r="AK115">
+        <v>3</v>
+      </c>
+      <c r="AL115" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>60</v>
       </c>
@@ -51370,8 +53434,26 @@
       <c r="AD116" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH116" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ116">
+        <v>2</v>
+      </c>
+      <c r="AK116">
+        <v>3</v>
+      </c>
+      <c r="AL116" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>60</v>
       </c>
@@ -51451,8 +53533,26 @@
       <c r="AD117" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH117" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>3</v>
+      </c>
+      <c r="AL117" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>60</v>
       </c>
@@ -51484,8 +53584,26 @@
       <c r="AD118" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH118" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>3</v>
+      </c>
+      <c r="AL118" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>60</v>
       </c>
@@ -51565,8 +53683,26 @@
       <c r="AD119" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH119" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ119">
+        <v>2</v>
+      </c>
+      <c r="AK119">
+        <v>3</v>
+      </c>
+      <c r="AL119" t="s">
+        <v>138</v>
+      </c>
+      <c r="AM119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y120" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51589,8 +53725,26 @@
       <c r="AD120" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH120" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>2</v>
+      </c>
+      <c r="AK120">
+        <v>3</v>
+      </c>
+      <c r="AL120" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y121" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51613,8 +53767,26 @@
       <c r="AD121" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH121" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>2</v>
+      </c>
+      <c r="AK121">
+        <v>3</v>
+      </c>
+      <c r="AL121" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y122" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51637,8 +53809,26 @@
       <c r="AD122" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH122" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>3</v>
+      </c>
+      <c r="AL122" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM122" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y123" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51661,8 +53851,26 @@
       <c r="AD123" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH123" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+      <c r="AK123">
+        <v>3</v>
+      </c>
+      <c r="AL123" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM123" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y124" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51685,8 +53893,26 @@
       <c r="AD124" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH124" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>2</v>
+      </c>
+      <c r="AK124">
+        <v>3</v>
+      </c>
+      <c r="AL124" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y125" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51709,8 +53935,26 @@
       <c r="AD125" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH125" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>2</v>
+      </c>
+      <c r="AK125">
+        <v>3</v>
+      </c>
+      <c r="AL125" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y126" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51733,8 +53977,26 @@
       <c r="AD126" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH126" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
+      <c r="AK126">
+        <v>3</v>
+      </c>
+      <c r="AL126" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y127" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51757,8 +54019,26 @@
       <c r="AD127" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AH127" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>2</v>
+      </c>
+      <c r="AK127">
+        <v>3</v>
+      </c>
+      <c r="AL127" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" spans="1:39" x14ac:dyDescent="0.3">
       <c r="Y128" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51781,8 +54061,26 @@
       <c r="AD128" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH128" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>2</v>
+      </c>
+      <c r="AK128">
+        <v>3</v>
+      </c>
+      <c r="AL128" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y129" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51805,8 +54103,26 @@
       <c r="AD129" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH129" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>3</v>
+      </c>
+      <c r="AL129" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y130" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51829,8 +54145,26 @@
       <c r="AD130" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH130" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>3</v>
+      </c>
+      <c r="AL130" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y131" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51853,8 +54187,26 @@
       <c r="AD131" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH131" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>3</v>
+      </c>
+      <c r="AL131" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y132" t="str">
         <f t="shared" si="4"/>
         <v>\I:</v>
@@ -51877,8 +54229,26 @@
       <c r="AD132" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH132" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AK132">
+        <v>3</v>
+      </c>
+      <c r="AL132" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y133" t="str">
         <f t="shared" ref="Y133:Y196" si="8">IF($A133="","\I:",A133)</f>
         <v>\I:</v>
@@ -51901,8 +54271,26 @@
       <c r="AD133" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH133" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>2</v>
+      </c>
+      <c r="AK133">
+        <v>3</v>
+      </c>
+      <c r="AL133" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y134" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -51925,8 +54313,26 @@
       <c r="AD134" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH134" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>2</v>
+      </c>
+      <c r="AK134">
+        <v>3</v>
+      </c>
+      <c r="AL134" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y135" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -51949,8 +54355,26 @@
       <c r="AD135" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH135" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>3</v>
+      </c>
+      <c r="AL135" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM135" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y136" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -51973,8 +54397,26 @@
       <c r="AD136" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH136" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>2</v>
+      </c>
+      <c r="AK136">
+        <v>3</v>
+      </c>
+      <c r="AL136" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y137" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -51997,8 +54439,26 @@
       <c r="AD137" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH137" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>2</v>
+      </c>
+      <c r="AK137">
+        <v>3</v>
+      </c>
+      <c r="AL137" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM137" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y138" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52021,8 +54481,26 @@
       <c r="AD138" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH138" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>3</v>
+      </c>
+      <c r="AL138" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y139" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52045,8 +54523,26 @@
       <c r="AD139" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH139" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>3</v>
+      </c>
+      <c r="AL139" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y140" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52069,8 +54565,26 @@
       <c r="AD140" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH140" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>3</v>
+      </c>
+      <c r="AL140" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM140" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y141" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52093,8 +54607,26 @@
       <c r="AD141" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH141" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>2</v>
+      </c>
+      <c r="AK141">
+        <v>3</v>
+      </c>
+      <c r="AL141" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM141" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y142" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52117,8 +54649,26 @@
       <c r="AD142" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH142" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>2</v>
+      </c>
+      <c r="AK142">
+        <v>3</v>
+      </c>
+      <c r="AL142" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y143" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52141,8 +54691,26 @@
       <c r="AD143" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH143" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>3</v>
+      </c>
+      <c r="AL143" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y144" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52165,8 +54733,26 @@
       <c r="AD144" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH144" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>3</v>
+      </c>
+      <c r="AL144" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM144" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y145" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52189,8 +54775,26 @@
       <c r="AD145" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH145" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>3</v>
+      </c>
+      <c r="AL145" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM145" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y146" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52213,8 +54817,26 @@
       <c r="AD146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH146" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>3</v>
+      </c>
+      <c r="AL146" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM146" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y147" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52237,8 +54859,26 @@
       <c r="AD147" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH147" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>3</v>
+      </c>
+      <c r="AL147" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y148" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52261,8 +54901,26 @@
       <c r="AD148" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH148" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>2</v>
+      </c>
+      <c r="AK148">
+        <v>3</v>
+      </c>
+      <c r="AL148" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM148" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="149" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y149" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52285,8 +54943,26 @@
       <c r="AD149" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH149" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>2</v>
+      </c>
+      <c r="AK149">
+        <v>3</v>
+      </c>
+      <c r="AL149" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y150" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52309,8 +54985,26 @@
       <c r="AD150" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH150" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>3</v>
+      </c>
+      <c r="AL150" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM150" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="151" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y151" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52333,8 +55027,26 @@
       <c r="AD151" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH151" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>2</v>
+      </c>
+      <c r="AK151">
+        <v>3</v>
+      </c>
+      <c r="AL151" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM151" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="152" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y152" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52357,8 +55069,26 @@
       <c r="AD152" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH152" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>2</v>
+      </c>
+      <c r="AK152">
+        <v>3</v>
+      </c>
+      <c r="AL152" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM152" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="153" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y153" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52381,8 +55111,26 @@
       <c r="AD153" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH153" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>2</v>
+      </c>
+      <c r="AK153">
+        <v>3</v>
+      </c>
+      <c r="AL153" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM153" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="154" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y154" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52405,8 +55153,26 @@
       <c r="AD154" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH154" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>2</v>
+      </c>
+      <c r="AK154">
+        <v>3</v>
+      </c>
+      <c r="AL154" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM154" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="155" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y155" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52429,8 +55195,26 @@
       <c r="AD155" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH155" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>2</v>
+      </c>
+      <c r="AK155">
+        <v>3</v>
+      </c>
+      <c r="AL155" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM155" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y156" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52453,8 +55237,26 @@
       <c r="AD156" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH156" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>2</v>
+      </c>
+      <c r="AK156">
+        <v>3</v>
+      </c>
+      <c r="AL156" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM156" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="157" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y157" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52477,8 +55279,26 @@
       <c r="AD157" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH157" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>2</v>
+      </c>
+      <c r="AK157">
+        <v>3</v>
+      </c>
+      <c r="AL157" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM157" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="158" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y158" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52501,8 +55321,26 @@
       <c r="AD158" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH158" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
+      <c r="AK158">
+        <v>3</v>
+      </c>
+      <c r="AL158" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM158" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="159" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y159" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52525,8 +55363,26 @@
       <c r="AD159" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH159" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>2</v>
+      </c>
+      <c r="AK159">
+        <v>3</v>
+      </c>
+      <c r="AL159" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM159" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="160" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y160" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52549,8 +55405,26 @@
       <c r="AD160" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH160" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>2</v>
+      </c>
+      <c r="AK160">
+        <v>3</v>
+      </c>
+      <c r="AL160" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM160" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y161" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52573,8 +55447,26 @@
       <c r="AD161" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH161" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>2</v>
+      </c>
+      <c r="AK161">
+        <v>3</v>
+      </c>
+      <c r="AL161" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM161" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="162" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y162" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52597,8 +55489,26 @@
       <c r="AD162" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH162" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>2</v>
+      </c>
+      <c r="AK162">
+        <v>3</v>
+      </c>
+      <c r="AL162" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM162" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="163" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y163" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52621,8 +55531,26 @@
       <c r="AD163" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH163" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>2</v>
+      </c>
+      <c r="AK163">
+        <v>3</v>
+      </c>
+      <c r="AL163" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM163" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y164" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52645,8 +55573,26 @@
       <c r="AD164" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH164" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>2</v>
+      </c>
+      <c r="AK164">
+        <v>3</v>
+      </c>
+      <c r="AL164" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM164" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y165" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52669,8 +55615,26 @@
       <c r="AD165" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH165" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>2</v>
+      </c>
+      <c r="AK165">
+        <v>3</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y166" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52693,8 +55657,26 @@
       <c r="AD166" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH166" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>2</v>
+      </c>
+      <c r="AK166">
+        <v>3</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y167" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52717,8 +55699,26 @@
       <c r="AD167" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH167" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>2</v>
+      </c>
+      <c r="AK167">
+        <v>3</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="168" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y168" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52741,8 +55741,26 @@
       <c r="AD168" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH168" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>2</v>
+      </c>
+      <c r="AK168">
+        <v>3</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="169" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y169" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52765,8 +55783,26 @@
       <c r="AD169" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH169" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>3</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="170" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y170" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52789,8 +55825,26 @@
       <c r="AD170" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH170" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>2</v>
+      </c>
+      <c r="AK170">
+        <v>3</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="171" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y171" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52813,8 +55867,26 @@
       <c r="AD171" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="172" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH171" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>2</v>
+      </c>
+      <c r="AK171">
+        <v>3</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="172" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y172" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52837,8 +55909,26 @@
       <c r="AD172" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="173" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH172" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>2</v>
+      </c>
+      <c r="AK172">
+        <v>3</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="173" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y173" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52861,8 +55951,26 @@
       <c r="AD173" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="174" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH173" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>2</v>
+      </c>
+      <c r="AK173">
+        <v>3</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="174" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y174" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52885,8 +55993,26 @@
       <c r="AD174" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH174" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI174">
+        <v>0</v>
+      </c>
+      <c r="AJ174">
+        <v>2</v>
+      </c>
+      <c r="AK174">
+        <v>3</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="175" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y175" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52909,8 +56035,26 @@
       <c r="AD175" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="176" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH175" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI175">
+        <v>0</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>3</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="176" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y176" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52933,8 +56077,26 @@
       <c r="AD176" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH176" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI176">
+        <v>0</v>
+      </c>
+      <c r="AJ176">
+        <v>2</v>
+      </c>
+      <c r="AK176">
+        <v>3</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="177" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y177" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52957,8 +56119,26 @@
       <c r="AD177" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH177" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI177">
+        <v>0</v>
+      </c>
+      <c r="AJ177">
+        <v>2</v>
+      </c>
+      <c r="AK177">
+        <v>3</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="178" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y178" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -52981,8 +56161,26 @@
       <c r="AD178" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="179" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH178" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI178">
+        <v>0</v>
+      </c>
+      <c r="AJ178">
+        <v>2</v>
+      </c>
+      <c r="AK178">
+        <v>3</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="179" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y179" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53005,8 +56203,26 @@
       <c r="AD179" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH179" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI179">
+        <v>0</v>
+      </c>
+      <c r="AJ179">
+        <v>2</v>
+      </c>
+      <c r="AK179">
+        <v>3</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="180" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y180" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53029,8 +56245,26 @@
       <c r="AD180" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="181" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH180" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI180">
+        <v>0</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>3</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="181" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y181" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53053,8 +56287,26 @@
       <c r="AD181" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="182" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH181" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI181">
+        <v>0</v>
+      </c>
+      <c r="AJ181">
+        <v>2</v>
+      </c>
+      <c r="AK181">
+        <v>3</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="182" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y182" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53077,8 +56329,26 @@
       <c r="AD182" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="183" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH182" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI182">
+        <v>0</v>
+      </c>
+      <c r="AJ182">
+        <v>2</v>
+      </c>
+      <c r="AK182">
+        <v>3</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="183" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y183" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53101,8 +56371,26 @@
       <c r="AD183" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH183" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI183">
+        <v>0</v>
+      </c>
+      <c r="AJ183">
+        <v>2</v>
+      </c>
+      <c r="AK183">
+        <v>3</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="184" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y184" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53125,8 +56413,26 @@
       <c r="AD184" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="185" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH184" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI184">
+        <v>0</v>
+      </c>
+      <c r="AJ184">
+        <v>2</v>
+      </c>
+      <c r="AK184">
+        <v>3</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="185" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y185" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53149,8 +56455,26 @@
       <c r="AD185" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="186" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH185" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI185">
+        <v>0</v>
+      </c>
+      <c r="AJ185">
+        <v>2</v>
+      </c>
+      <c r="AK185">
+        <v>3</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="186" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y186" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53173,8 +56497,26 @@
       <c r="AD186" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH186" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI186">
+        <v>0</v>
+      </c>
+      <c r="AJ186">
+        <v>2</v>
+      </c>
+      <c r="AK186">
+        <v>3</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="187" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y187" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53197,8 +56539,26 @@
       <c r="AD187" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="188" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH187" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI187">
+        <v>0</v>
+      </c>
+      <c r="AJ187">
+        <v>2</v>
+      </c>
+      <c r="AK187">
+        <v>3</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="188" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y188" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53221,8 +56581,26 @@
       <c r="AD188" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH188" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI188">
+        <v>0</v>
+      </c>
+      <c r="AJ188">
+        <v>2</v>
+      </c>
+      <c r="AK188">
+        <v>3</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="189" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y189" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53245,8 +56623,26 @@
       <c r="AD189" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="190" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH189" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI189">
+        <v>0</v>
+      </c>
+      <c r="AJ189">
+        <v>2</v>
+      </c>
+      <c r="AK189">
+        <v>3</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="190" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y190" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53269,8 +56665,26 @@
       <c r="AD190" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="191" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH190" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI190">
+        <v>0</v>
+      </c>
+      <c r="AJ190">
+        <v>2</v>
+      </c>
+      <c r="AK190">
+        <v>3</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y191" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53293,8 +56707,26 @@
       <c r="AD191" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="192" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH191" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI191">
+        <v>0</v>
+      </c>
+      <c r="AJ191">
+        <v>2</v>
+      </c>
+      <c r="AK191">
+        <v>3</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="192" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y192" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53317,8 +56749,26 @@
       <c r="AD192" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH192" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI192">
+        <v>0</v>
+      </c>
+      <c r="AJ192">
+        <v>2</v>
+      </c>
+      <c r="AK192">
+        <v>3</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="193" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y193" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53341,8 +56791,26 @@
       <c r="AD193" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="194" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH193" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI193">
+        <v>0</v>
+      </c>
+      <c r="AJ193">
+        <v>2</v>
+      </c>
+      <c r="AK193">
+        <v>3</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="194" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y194" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53365,8 +56833,26 @@
       <c r="AD194" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="195" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH194" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI194">
+        <v>0</v>
+      </c>
+      <c r="AJ194">
+        <v>2</v>
+      </c>
+      <c r="AK194">
+        <v>3</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="195" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y195" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53389,8 +56875,26 @@
       <c r="AD195" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="196" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH195" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI195">
+        <v>0</v>
+      </c>
+      <c r="AJ195">
+        <v>2</v>
+      </c>
+      <c r="AK195">
+        <v>3</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="196" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y196" t="str">
         <f t="shared" si="8"/>
         <v>\I:</v>
@@ -53413,8 +56917,26 @@
       <c r="AD196" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="197" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH196" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI196">
+        <v>0</v>
+      </c>
+      <c r="AJ196">
+        <v>2</v>
+      </c>
+      <c r="AK196">
+        <v>3</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="197" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y197" t="str">
         <f t="shared" ref="Y197:Y260" si="12">IF($A197="","\I:",A197)</f>
         <v>\I:</v>
@@ -53437,8 +56959,26 @@
       <c r="AD197" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="198" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH197" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI197">
+        <v>0</v>
+      </c>
+      <c r="AJ197">
+        <v>2</v>
+      </c>
+      <c r="AK197">
+        <v>3</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="198" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y198" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53461,8 +57001,26 @@
       <c r="AD198" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="199" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH198" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI198">
+        <v>0</v>
+      </c>
+      <c r="AJ198">
+        <v>2</v>
+      </c>
+      <c r="AK198">
+        <v>3</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="199" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y199" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53485,8 +57043,26 @@
       <c r="AD199" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH199" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI199">
+        <v>0</v>
+      </c>
+      <c r="AJ199">
+        <v>2</v>
+      </c>
+      <c r="AK199">
+        <v>3</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="200" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y200" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53509,8 +57085,26 @@
       <c r="AD200" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH200" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI200">
+        <v>0</v>
+      </c>
+      <c r="AJ200">
+        <v>2</v>
+      </c>
+      <c r="AK200">
+        <v>3</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="201" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y201" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53533,8 +57127,26 @@
       <c r="AD201" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH201" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI201">
+        <v>0</v>
+      </c>
+      <c r="AJ201">
+        <v>2</v>
+      </c>
+      <c r="AK201">
+        <v>3</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="202" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y202" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53557,8 +57169,26 @@
       <c r="AD202" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="203" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH202" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI202">
+        <v>0</v>
+      </c>
+      <c r="AJ202">
+        <v>2</v>
+      </c>
+      <c r="AK202">
+        <v>3</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="203" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y203" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53581,8 +57211,26 @@
       <c r="AD203" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="204" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH203" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI203">
+        <v>0</v>
+      </c>
+      <c r="AJ203">
+        <v>2</v>
+      </c>
+      <c r="AK203">
+        <v>3</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="204" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y204" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53605,8 +57253,26 @@
       <c r="AD204" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH204" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI204">
+        <v>0</v>
+      </c>
+      <c r="AJ204">
+        <v>2</v>
+      </c>
+      <c r="AK204">
+        <v>3</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="205" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y205" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53629,8 +57295,26 @@
       <c r="AD205" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="206" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH205" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI205">
+        <v>0</v>
+      </c>
+      <c r="AJ205">
+        <v>2</v>
+      </c>
+      <c r="AK205">
+        <v>3</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="206" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y206" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53653,8 +57337,26 @@
       <c r="AD206" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="207" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH206" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI206">
+        <v>0</v>
+      </c>
+      <c r="AJ206">
+        <v>2</v>
+      </c>
+      <c r="AK206">
+        <v>3</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="207" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y207" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53677,8 +57379,26 @@
       <c r="AD207" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="208" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH207" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI207">
+        <v>0</v>
+      </c>
+      <c r="AJ207">
+        <v>2</v>
+      </c>
+      <c r="AK207">
+        <v>3</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="208" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y208" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53701,8 +57421,26 @@
       <c r="AD208" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="209" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH208" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI208">
+        <v>0</v>
+      </c>
+      <c r="AJ208">
+        <v>2</v>
+      </c>
+      <c r="AK208">
+        <v>3</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="209" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y209" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53725,8 +57463,26 @@
       <c r="AD209" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH209" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI209">
+        <v>0</v>
+      </c>
+      <c r="AJ209">
+        <v>2</v>
+      </c>
+      <c r="AK209">
+        <v>3</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="210" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y210" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53749,8 +57505,26 @@
       <c r="AD210" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH210" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI210">
+        <v>0</v>
+      </c>
+      <c r="AJ210">
+        <v>2</v>
+      </c>
+      <c r="AK210">
+        <v>3</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="211" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y211" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53773,8 +57547,26 @@
       <c r="AD211" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH211" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI211">
+        <v>0</v>
+      </c>
+      <c r="AJ211">
+        <v>2</v>
+      </c>
+      <c r="AK211">
+        <v>3</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="212" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y212" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53797,8 +57589,26 @@
       <c r="AD212" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH212" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI212">
+        <v>0</v>
+      </c>
+      <c r="AJ212">
+        <v>2</v>
+      </c>
+      <c r="AK212">
+        <v>3</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="213" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y213" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53821,8 +57631,26 @@
       <c r="AD213" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="214" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH213" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI213">
+        <v>0</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>3</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="214" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y214" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53845,8 +57673,26 @@
       <c r="AD214" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="215" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH214" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI214">
+        <v>0</v>
+      </c>
+      <c r="AJ214">
+        <v>2</v>
+      </c>
+      <c r="AK214">
+        <v>3</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="215" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y215" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53869,8 +57715,26 @@
       <c r="AD215" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="216" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH215" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI215">
+        <v>0</v>
+      </c>
+      <c r="AJ215">
+        <v>2</v>
+      </c>
+      <c r="AK215">
+        <v>3</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="216" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y216" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53893,8 +57757,26 @@
       <c r="AD216" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="217" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH216" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI216">
+        <v>0</v>
+      </c>
+      <c r="AJ216">
+        <v>2</v>
+      </c>
+      <c r="AK216">
+        <v>3</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="217" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y217" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53917,8 +57799,26 @@
       <c r="AD217" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="218" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH217" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI217">
+        <v>0</v>
+      </c>
+      <c r="AJ217">
+        <v>2</v>
+      </c>
+      <c r="AK217">
+        <v>3</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="218" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y218" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53941,8 +57841,26 @@
       <c r="AD218" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="219" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH218" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI218">
+        <v>0</v>
+      </c>
+      <c r="AJ218">
+        <v>2</v>
+      </c>
+      <c r="AK218">
+        <v>3</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="219" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y219" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53965,8 +57883,26 @@
       <c r="AD219" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="220" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH219" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI219">
+        <v>0</v>
+      </c>
+      <c r="AJ219">
+        <v>2</v>
+      </c>
+      <c r="AK219">
+        <v>3</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="220" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y220" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -53989,8 +57925,26 @@
       <c r="AD220" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="221" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH220" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI220">
+        <v>0</v>
+      </c>
+      <c r="AJ220">
+        <v>2</v>
+      </c>
+      <c r="AK220">
+        <v>3</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="221" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y221" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54013,8 +57967,26 @@
       <c r="AD221" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="222" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH221" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI221">
+        <v>0</v>
+      </c>
+      <c r="AJ221">
+        <v>2</v>
+      </c>
+      <c r="AK221">
+        <v>3</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="222" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y222" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54037,8 +58009,26 @@
       <c r="AD222" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="223" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH222" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>2</v>
+      </c>
+      <c r="AK222">
+        <v>3</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="223" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y223" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54061,8 +58051,26 @@
       <c r="AD223" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="224" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH223" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>2</v>
+      </c>
+      <c r="AK223">
+        <v>3</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="224" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y224" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54085,8 +58093,26 @@
       <c r="AD224" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH224" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>2</v>
+      </c>
+      <c r="AK224">
+        <v>3</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="225" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y225" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54109,8 +58135,26 @@
       <c r="AD225" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="226" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH225" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>2</v>
+      </c>
+      <c r="AK225">
+        <v>3</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="226" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y226" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54133,8 +58177,26 @@
       <c r="AD226" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="227" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH226" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>2</v>
+      </c>
+      <c r="AK226">
+        <v>3</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="227" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y227" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54157,8 +58219,26 @@
       <c r="AD227" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="228" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH227" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>2</v>
+      </c>
+      <c r="AK227">
+        <v>3</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="228" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y228" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54181,8 +58261,26 @@
       <c r="AD228" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH228" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>2</v>
+      </c>
+      <c r="AK228">
+        <v>3</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="229" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y229" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54205,8 +58303,26 @@
       <c r="AD229" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH229" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>2</v>
+      </c>
+      <c r="AK229">
+        <v>3</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="230" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y230" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54229,8 +58345,26 @@
       <c r="AD230" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="231" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH230" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>2</v>
+      </c>
+      <c r="AK230">
+        <v>3</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y231" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54253,8 +58387,26 @@
       <c r="AD231" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH231" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>2</v>
+      </c>
+      <c r="AK231">
+        <v>3</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="232" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y232" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54277,8 +58429,26 @@
       <c r="AD232" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="233" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH232" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>2</v>
+      </c>
+      <c r="AK232">
+        <v>3</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="233" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y233" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54301,8 +58471,26 @@
       <c r="AD233" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="234" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH233" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>3</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="234" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y234" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54325,8 +58513,26 @@
       <c r="AD234" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH234" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI234">
+        <v>0</v>
+      </c>
+      <c r="AJ234">
+        <v>2</v>
+      </c>
+      <c r="AK234">
+        <v>3</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="235" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y235" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54349,8 +58555,26 @@
       <c r="AD235" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="236" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH235" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI235">
+        <v>0</v>
+      </c>
+      <c r="AJ235">
+        <v>2</v>
+      </c>
+      <c r="AK235">
+        <v>3</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="236" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y236" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54373,8 +58597,26 @@
       <c r="AD236" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH236" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI236">
+        <v>0</v>
+      </c>
+      <c r="AJ236">
+        <v>2</v>
+      </c>
+      <c r="AK236">
+        <v>3</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="237" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y237" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54397,8 +58639,26 @@
       <c r="AD237" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="238" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH237" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI237">
+        <v>0</v>
+      </c>
+      <c r="AJ237">
+        <v>2</v>
+      </c>
+      <c r="AK237">
+        <v>3</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y238" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54421,8 +58681,26 @@
       <c r="AD238" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH238" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI238">
+        <v>0</v>
+      </c>
+      <c r="AJ238">
+        <v>2</v>
+      </c>
+      <c r="AK238">
+        <v>3</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="239" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y239" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54445,8 +58723,26 @@
       <c r="AD239" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH239" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI239">
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <v>2</v>
+      </c>
+      <c r="AK239">
+        <v>3</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="240" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y240" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54469,8 +58765,26 @@
       <c r="AD240" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="241" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH240" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI240">
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <v>2</v>
+      </c>
+      <c r="AK240">
+        <v>3</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="241" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y241" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54493,8 +58807,26 @@
       <c r="AD241" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH241" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI241">
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <v>2</v>
+      </c>
+      <c r="AK241">
+        <v>3</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="242" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y242" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54517,8 +58849,26 @@
       <c r="AD242" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH242" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI242">
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <v>2</v>
+      </c>
+      <c r="AK242">
+        <v>3</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="243" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y243" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54541,8 +58891,26 @@
       <c r="AD243" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH243" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI243">
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <v>2</v>
+      </c>
+      <c r="AK243">
+        <v>3</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="244" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y244" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54565,8 +58933,26 @@
       <c r="AD244" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="245" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH244" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI244">
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <v>2</v>
+      </c>
+      <c r="AK244">
+        <v>3</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="245" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y245" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54589,8 +58975,26 @@
       <c r="AD245" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH245" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI245">
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <v>2</v>
+      </c>
+      <c r="AK245">
+        <v>3</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="246" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y246" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54613,8 +59017,26 @@
       <c r="AD246" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH246" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI246">
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <v>2</v>
+      </c>
+      <c r="AK246">
+        <v>3</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="247" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y247" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54637,8 +59059,26 @@
       <c r="AD247" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH247" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI247">
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <v>2</v>
+      </c>
+      <c r="AK247">
+        <v>3</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="248" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y248" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54661,8 +59101,26 @@
       <c r="AD248" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH248" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI248">
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <v>2</v>
+      </c>
+      <c r="AK248">
+        <v>3</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="249" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y249" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54685,8 +59143,26 @@
       <c r="AD249" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH249" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI249">
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <v>2</v>
+      </c>
+      <c r="AK249">
+        <v>3</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="250" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y250" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54709,8 +59185,26 @@
       <c r="AD250" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH250" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI250">
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <v>2</v>
+      </c>
+      <c r="AK250">
+        <v>3</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="251" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y251" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54733,8 +59227,26 @@
       <c r="AD251" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="252" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH251" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI251">
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <v>2</v>
+      </c>
+      <c r="AK251">
+        <v>3</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="252" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y252" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54757,8 +59269,26 @@
       <c r="AD252" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH252" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI252">
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <v>2</v>
+      </c>
+      <c r="AK252">
+        <v>3</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="253" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y253" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54781,8 +59311,26 @@
       <c r="AD253" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="254" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH253" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI253">
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <v>2</v>
+      </c>
+      <c r="AK253">
+        <v>3</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="254" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y254" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54805,8 +59353,26 @@
       <c r="AD254" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="255" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH254" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI254">
+        <v>0</v>
+      </c>
+      <c r="AJ254">
+        <v>2</v>
+      </c>
+      <c r="AK254">
+        <v>3</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="255" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y255" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54829,8 +59395,26 @@
       <c r="AD255" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="256" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH255" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI255">
+        <v>0</v>
+      </c>
+      <c r="AJ255">
+        <v>2</v>
+      </c>
+      <c r="AK255">
+        <v>3</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="256" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y256" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54853,8 +59437,26 @@
       <c r="AD256" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="257" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH256" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI256">
+        <v>0</v>
+      </c>
+      <c r="AJ256">
+        <v>2</v>
+      </c>
+      <c r="AK256">
+        <v>3</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="257" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y257" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54877,8 +59479,26 @@
       <c r="AD257" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="258" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH257" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI257">
+        <v>0</v>
+      </c>
+      <c r="AJ257">
+        <v>2</v>
+      </c>
+      <c r="AK257">
+        <v>3</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="258" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y258" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54901,8 +59521,26 @@
       <c r="AD258" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH258" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI258">
+        <v>0</v>
+      </c>
+      <c r="AJ258">
+        <v>2</v>
+      </c>
+      <c r="AK258">
+        <v>3</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="259" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y259" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54925,8 +59563,26 @@
       <c r="AD259" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="260" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH259" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI259">
+        <v>0</v>
+      </c>
+      <c r="AJ259">
+        <v>2</v>
+      </c>
+      <c r="AK259">
+        <v>3</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="260" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y260" t="str">
         <f t="shared" si="12"/>
         <v>\I:</v>
@@ -54949,8 +59605,26 @@
       <c r="AD260" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="261" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH260" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI260">
+        <v>0</v>
+      </c>
+      <c r="AJ260">
+        <v>2</v>
+      </c>
+      <c r="AK260">
+        <v>3</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="261" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y261" t="str">
         <f t="shared" ref="Y261:Y283" si="16">IF($A261="","\I:",A261)</f>
         <v>\I:</v>
@@ -54973,8 +59647,26 @@
       <c r="AD261" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH261" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI261">
+        <v>0</v>
+      </c>
+      <c r="AJ261">
+        <v>2</v>
+      </c>
+      <c r="AK261">
+        <v>3</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="262" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y262" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -54997,8 +59689,26 @@
       <c r="AD262" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="263" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH262" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI262">
+        <v>0</v>
+      </c>
+      <c r="AJ262">
+        <v>2</v>
+      </c>
+      <c r="AK262">
+        <v>3</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="263" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y263" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55021,8 +59731,26 @@
       <c r="AD263" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="264" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH263" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI263">
+        <v>0</v>
+      </c>
+      <c r="AJ263">
+        <v>2</v>
+      </c>
+      <c r="AK263">
+        <v>3</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="264" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y264" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55045,8 +59773,26 @@
       <c r="AD264" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="265" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH264" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI264">
+        <v>0</v>
+      </c>
+      <c r="AJ264">
+        <v>2</v>
+      </c>
+      <c r="AK264">
+        <v>3</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="265" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y265" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55069,8 +59815,26 @@
       <c r="AD265" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="266" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH265" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI265">
+        <v>0</v>
+      </c>
+      <c r="AJ265">
+        <v>2</v>
+      </c>
+      <c r="AK265">
+        <v>3</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="266" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y266" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55093,8 +59857,26 @@
       <c r="AD266" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="267" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH266" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI266">
+        <v>0</v>
+      </c>
+      <c r="AJ266">
+        <v>2</v>
+      </c>
+      <c r="AK266">
+        <v>3</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="267" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y267" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55117,8 +59899,26 @@
       <c r="AD267" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="268" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH267" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI267">
+        <v>0</v>
+      </c>
+      <c r="AJ267">
+        <v>2</v>
+      </c>
+      <c r="AK267">
+        <v>3</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="268" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y268" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55141,8 +59941,26 @@
       <c r="AD268" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="269" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH268" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI268">
+        <v>0</v>
+      </c>
+      <c r="AJ268">
+        <v>2</v>
+      </c>
+      <c r="AK268">
+        <v>3</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="269" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y269" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55165,8 +59983,26 @@
       <c r="AD269" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="270" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH269" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI269">
+        <v>0</v>
+      </c>
+      <c r="AJ269">
+        <v>2</v>
+      </c>
+      <c r="AK269">
+        <v>3</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="270" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y270" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55189,8 +60025,26 @@
       <c r="AD270" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="271" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH270" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI270">
+        <v>0</v>
+      </c>
+      <c r="AJ270">
+        <v>2</v>
+      </c>
+      <c r="AK270">
+        <v>3</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="271" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y271" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55213,8 +60067,26 @@
       <c r="AD271" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="272" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH271" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI271">
+        <v>0</v>
+      </c>
+      <c r="AJ271">
+        <v>2</v>
+      </c>
+      <c r="AK271">
+        <v>3</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="272" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y272" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55237,8 +60109,26 @@
       <c r="AD272" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="273" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH272" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI272">
+        <v>0</v>
+      </c>
+      <c r="AJ272">
+        <v>2</v>
+      </c>
+      <c r="AK272">
+        <v>3</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="273" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y273" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55261,8 +60151,26 @@
       <c r="AD273" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="274" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH273" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI273">
+        <v>0</v>
+      </c>
+      <c r="AJ273">
+        <v>2</v>
+      </c>
+      <c r="AK273">
+        <v>3</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="274" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y274" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55285,8 +60193,26 @@
       <c r="AD274" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="275" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH274" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI274">
+        <v>0</v>
+      </c>
+      <c r="AJ274">
+        <v>2</v>
+      </c>
+      <c r="AK274">
+        <v>3</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="275" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y275" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55309,8 +60235,26 @@
       <c r="AD275" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="276" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH275" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI275">
+        <v>0</v>
+      </c>
+      <c r="AJ275">
+        <v>2</v>
+      </c>
+      <c r="AK275">
+        <v>3</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="276" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y276" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55333,8 +60277,26 @@
       <c r="AD276" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="277" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH276" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI276">
+        <v>0</v>
+      </c>
+      <c r="AJ276">
+        <v>2</v>
+      </c>
+      <c r="AK276">
+        <v>3</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="277" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y277" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55357,8 +60319,26 @@
       <c r="AD277" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="278" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH277" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI277">
+        <v>0</v>
+      </c>
+      <c r="AJ277">
+        <v>2</v>
+      </c>
+      <c r="AK277">
+        <v>3</v>
+      </c>
+      <c r="AL277" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="278" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y278" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55381,8 +60361,26 @@
       <c r="AD278" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="279" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH278" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI278">
+        <v>0</v>
+      </c>
+      <c r="AJ278">
+        <v>2</v>
+      </c>
+      <c r="AK278">
+        <v>3</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="279" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y279" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55405,8 +60403,26 @@
       <c r="AD279" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH279" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI279">
+        <v>0</v>
+      </c>
+      <c r="AJ279">
+        <v>2</v>
+      </c>
+      <c r="AK279">
+        <v>3</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="280" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y280" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55429,8 +60445,26 @@
       <c r="AD280" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="281" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH280" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI280">
+        <v>0</v>
+      </c>
+      <c r="AJ280">
+        <v>2</v>
+      </c>
+      <c r="AK280">
+        <v>3</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="281" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y281" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55453,8 +60487,26 @@
       <c r="AD281" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH281" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI281">
+        <v>0</v>
+      </c>
+      <c r="AJ281">
+        <v>2</v>
+      </c>
+      <c r="AK281">
+        <v>3</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="282" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y282" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55477,8 +60529,26 @@
       <c r="AD282" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="25:30" x14ac:dyDescent="0.3">
+      <c r="AH282" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI282">
+        <v>0</v>
+      </c>
+      <c r="AJ282">
+        <v>2</v>
+      </c>
+      <c r="AK282">
+        <v>3</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="283" spans="25:39" x14ac:dyDescent="0.3">
       <c r="Y283" t="str">
         <f t="shared" si="16"/>
         <v>\I:</v>
@@ -55500,6 +60570,24 @@
       </c>
       <c r="AD283" t="s">
         <v>17</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI283">
+        <v>0</v>
+      </c>
+      <c r="AJ283">
+        <v>2</v>
+      </c>
+      <c r="AK283">
+        <v>3</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -55512,7 +60600,7 @@
   <dimension ref="B3:K49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
